--- a/prix/laiton.xlsx
+++ b/prix/laiton.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775C52AD-869F-468E-9BF6-D1393D928E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598AFBDA-8EA4-45A5-9AC8-0837B79DECBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BA8A27F-C677-4342-8A29-D0C4A22FC515}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="327">
   <si>
     <t>43107601</t>
   </si>
@@ -1008,6 +1008,15 @@
   </si>
   <si>
     <t>1/2-1/2-1EF</t>
+  </si>
+  <si>
+    <t>laiton/laiton-bonnet.png</t>
+  </si>
+  <si>
+    <t>laiton/laiton-manchon.png</t>
+  </si>
+  <si>
+    <t>laiton/laiton-culasse.png</t>
   </si>
 </sst>
 </file>
@@ -1418,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16140EE4-62C9-4627-8E75-6BE0566E4DDE}">
   <dimension ref="A1:N127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1601,6 +1610,9 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>324</v>
+      </c>
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
@@ -1615,6 +1627,9 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>324</v>
+      </c>
       <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
@@ -1629,6 +1644,9 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>324</v>
+      </c>
       <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
@@ -1643,6 +1661,9 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>324</v>
+      </c>
       <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
@@ -1657,6 +1678,9 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>324</v>
+      </c>
       <c r="B14" s="7" t="s">
         <v>25</v>
       </c>
@@ -1671,6 +1695,9 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>324</v>
+      </c>
       <c r="B15" s="7" t="s">
         <v>27</v>
       </c>
@@ -1685,6 +1712,9 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>324</v>
+      </c>
       <c r="B16" s="7" t="s">
         <v>29</v>
       </c>
@@ -1699,6 +1729,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>324</v>
+      </c>
       <c r="B17" s="7" t="s">
         <v>31</v>
       </c>
@@ -2558,9 +2591,6 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
-        <v>262</v>
-      </c>
       <c r="B68" s="7" t="s">
         <v>113</v>
       </c>
@@ -2908,6 +2938,9 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>325</v>
+      </c>
       <c r="B89" s="7" t="s">
         <v>173</v>
       </c>
@@ -2922,6 +2955,9 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>325</v>
+      </c>
       <c r="B90" s="7" t="s">
         <v>175</v>
       </c>
@@ -2936,6 +2972,9 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>325</v>
+      </c>
       <c r="B91" s="7" t="s">
         <v>177</v>
       </c>
@@ -2950,6 +2989,9 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>325</v>
+      </c>
       <c r="B92" s="7" t="s">
         <v>179</v>
       </c>
@@ -2964,6 +3006,9 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>325</v>
+      </c>
       <c r="B93" s="7" t="s">
         <v>181</v>
       </c>
@@ -2978,6 +3023,9 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
+        <v>325</v>
+      </c>
       <c r="B94" s="7" t="s">
         <v>183</v>
       </c>
@@ -2992,6 +3040,9 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>325</v>
+      </c>
       <c r="B95" s="7" t="s">
         <v>185</v>
       </c>
@@ -3006,6 +3057,9 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
+        <v>325</v>
+      </c>
       <c r="B96" s="7" t="s">
         <v>187</v>
       </c>
@@ -3020,6 +3074,9 @@
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>264</v>
+      </c>
       <c r="B97" s="7" t="s">
         <v>189</v>
       </c>
@@ -3255,6 +3312,9 @@
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
+        <v>326</v>
+      </c>
       <c r="B111" s="7" t="s">
         <v>217</v>
       </c>
@@ -3277,6 +3337,9 @@
       <c r="N111"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
+        <v>326</v>
+      </c>
       <c r="B112" s="7" t="s">
         <v>219</v>
       </c>
@@ -3299,6 +3362,9 @@
       <c r="N112"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
+        <v>326</v>
+      </c>
       <c r="B113" s="7" t="s">
         <v>221</v>
       </c>
@@ -3313,6 +3379,9 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
+        <v>326</v>
+      </c>
       <c r="B114" s="7" t="s">
         <v>223</v>
       </c>
@@ -3327,6 +3396,9 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="s">
+        <v>326</v>
+      </c>
       <c r="B115" s="7" t="s">
         <v>225</v>
       </c>
@@ -3341,6 +3413,9 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="6" t="s">
+        <v>326</v>
+      </c>
       <c r="B116" s="7" t="s">
         <v>227</v>
       </c>
@@ -3355,6 +3430,9 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="6" t="s">
+        <v>326</v>
+      </c>
       <c r="B117" s="7" t="s">
         <v>229</v>
       </c>

--- a/prix/laiton.xlsx
+++ b/prix/laiton.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598AFBDA-8EA4-45A5-9AC8-0837B79DECBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E02D73-BA62-43D9-B494-986ED6700B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BA8A27F-C677-4342-8A29-D0C4A22FC515}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="328">
   <si>
     <t>43107601</t>
   </si>
@@ -1017,6 +1017,9 @@
   </si>
   <si>
     <t>laiton/laiton-culasse.png</t>
+  </si>
+  <si>
+    <t>laiton/coude-union.png</t>
   </si>
 </sst>
 </file>
@@ -1427,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16140EE4-62C9-4627-8E75-6BE0566E4DDE}">
   <dimension ref="A1:N127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1849,7 +1852,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>256</v>
+        <v>327</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>45</v>
@@ -1866,7 +1869,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>256</v>
+        <v>327</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>47</v>
@@ -1883,7 +1886,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>256</v>
+        <v>327</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>49</v>
@@ -1900,7 +1903,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>256</v>
+        <v>327</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>51</v>
@@ -1917,7 +1920,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>256</v>
+        <v>327</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>53</v>
@@ -1934,7 +1937,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>256</v>
+        <v>327</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>55</v>

--- a/prix/laiton.xlsx
+++ b/prix/laiton.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333E3982-CF4F-4D6F-BBE5-05705DF625B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2E360A-941D-4420-9E44-577ABB3E30B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4476" yWindow="1068" windowWidth="13236" windowHeight="9708" xr2:uid="{2BA8A27F-C677-4342-8A29-D0C4A22FC515}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BA8A27F-C677-4342-8A29-D0C4A22FC515}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="356">
   <si>
     <t>43107601</t>
   </si>
@@ -1098,6 +1098,12 @@
   </si>
   <si>
     <t>laiton/tetine-male.png</t>
+  </si>
+  <si>
+    <t>disponible</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1113,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1120,6 +1126,20 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1166,7 +1186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1210,6 +1230,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1547,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16140EE4-62C9-4627-8E75-6BE0566E4DDE}">
   <dimension ref="A1:N137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133:A135"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1558,7 +1584,7 @@
     <col min="3" max="3" width="23.6640625" style="10" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" style="17" customWidth="1"/>
     <col min="7" max="7" width="51.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" style="2" customWidth="1"/>
     <col min="9" max="9" width="23.77734375" style="1" customWidth="1"/>
@@ -1583,7 +1609,9 @@
       <c r="E1" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="16" t="s">
+        <v>354</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1609,6 +1637,9 @@
       <c r="E2" s="11" t="s">
         <v>0</v>
       </c>
+      <c r="F2" s="17" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -1626,6 +1657,9 @@
       <c r="E3" s="11" t="s">
         <v>2</v>
       </c>
+      <c r="F3" s="17" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -1643,6 +1677,9 @@
       <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="F4" s="17" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -1660,6 +1697,9 @@
       <c r="E5" s="11" t="s">
         <v>6</v>
       </c>
+      <c r="F5" s="17" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -1677,6 +1717,9 @@
       <c r="E6" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="F6" s="17" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -1694,6 +1737,9 @@
       <c r="E7" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="F7" s="17" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -1711,6 +1757,9 @@
       <c r="E8" s="11" t="s">
         <v>12</v>
       </c>
+      <c r="F8" s="17" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -1728,6 +1777,9 @@
       <c r="E9" s="11" t="s">
         <v>14</v>
       </c>
+      <c r="F9" s="17" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -1745,6 +1797,9 @@
       <c r="E10" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="F10" s="17" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -1762,6 +1817,9 @@
       <c r="E11" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="F11" s="17" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -1779,6 +1837,9 @@
       <c r="E12" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="F12" s="17" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -1796,6 +1857,9 @@
       <c r="E13" s="11" t="s">
         <v>22</v>
       </c>
+      <c r="F13" s="17" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -1813,6 +1877,9 @@
       <c r="E14" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="F14" s="17" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
@@ -1830,6 +1897,9 @@
       <c r="E15" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="F15" s="17" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
@@ -1847,8 +1917,11 @@
       <c r="E16" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>324</v>
       </c>
@@ -1864,8 +1937,11 @@
       <c r="E17" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>255</v>
       </c>
@@ -1881,8 +1957,11 @@
       <c r="E18" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>255</v>
       </c>
@@ -1898,8 +1977,11 @@
       <c r="E19" s="12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>255</v>
       </c>
@@ -1915,8 +1997,11 @@
       <c r="E20" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>255</v>
       </c>
@@ -1932,8 +2017,11 @@
       <c r="E21" s="12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>255</v>
       </c>
@@ -1949,8 +2037,11 @@
       <c r="E22" s="12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>255</v>
       </c>
@@ -1966,8 +2057,11 @@
       <c r="E23" s="12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>327</v>
       </c>
@@ -1983,8 +2077,11 @@
       <c r="E24" s="12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>327</v>
       </c>
@@ -2000,8 +2097,11 @@
       <c r="E25" s="12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>327</v>
       </c>
@@ -2017,8 +2117,11 @@
       <c r="E26" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>327</v>
       </c>
@@ -2034,8 +2137,11 @@
       <c r="E27" s="12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>327</v>
       </c>
@@ -2051,8 +2157,11 @@
       <c r="E28" s="12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>327</v>
       </c>
@@ -2068,8 +2177,11 @@
       <c r="E29" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>257</v>
       </c>
@@ -2085,8 +2197,11 @@
       <c r="E30" s="12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>257</v>
       </c>
@@ -2102,8 +2217,11 @@
       <c r="E31" s="12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>258</v>
       </c>
@@ -2119,8 +2237,11 @@
       <c r="E32" s="12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>258</v>
       </c>
@@ -2136,8 +2257,11 @@
       <c r="E33" s="12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>258</v>
       </c>
@@ -2153,8 +2277,11 @@
       <c r="E34" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>258</v>
       </c>
@@ -2170,8 +2297,11 @@
       <c r="E35" s="12" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>258</v>
       </c>
@@ -2187,8 +2317,11 @@
       <c r="E36" s="12" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>258</v>
       </c>
@@ -2204,8 +2337,11 @@
       <c r="E37" s="12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>258</v>
       </c>
@@ -2221,8 +2357,11 @@
       <c r="E38" s="12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>259</v>
       </c>
@@ -2238,8 +2377,11 @@
       <c r="E39" s="12" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>259</v>
       </c>
@@ -2255,8 +2397,11 @@
       <c r="E40" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>260</v>
       </c>
@@ -2272,8 +2417,11 @@
       <c r="E41" s="12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>260</v>
       </c>
@@ -2289,8 +2437,11 @@
       <c r="E42" s="12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>260</v>
       </c>
@@ -2306,8 +2457,11 @@
       <c r="E43" s="12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>260</v>
       </c>
@@ -2323,8 +2477,11 @@
       <c r="E44" s="12" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>260</v>
       </c>
@@ -2340,8 +2497,11 @@
       <c r="E45" s="12" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>260</v>
       </c>
@@ -2357,8 +2517,11 @@
       <c r="E46" s="12" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>260</v>
       </c>
@@ -2374,8 +2537,11 @@
       <c r="E47" s="12" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>260</v>
       </c>
@@ -2391,8 +2557,11 @@
       <c r="E48" s="12" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>261</v>
       </c>
@@ -2408,8 +2577,11 @@
       <c r="E49" s="12" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>261</v>
       </c>
@@ -2425,8 +2597,11 @@
       <c r="E50" s="12" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>261</v>
       </c>
@@ -2442,8 +2617,11 @@
       <c r="E51" s="12" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>261</v>
       </c>
@@ -2459,8 +2637,11 @@
       <c r="E52" s="12" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>261</v>
       </c>
@@ -2476,8 +2657,11 @@
       <c r="E53" s="12" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>261</v>
       </c>
@@ -2493,8 +2677,11 @@
       <c r="E54" s="12" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>261</v>
       </c>
@@ -2510,8 +2697,11 @@
       <c r="E55" s="12" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>261</v>
       </c>
@@ -2527,8 +2717,11 @@
       <c r="E56" s="12" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>261</v>
       </c>
@@ -2544,8 +2737,11 @@
       <c r="E57" s="12" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>113</v>
       </c>
@@ -2556,8 +2752,11 @@
       <c r="E58" s="12" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>262</v>
       </c>
@@ -2573,8 +2772,11 @@
       <c r="E59" s="12" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>262</v>
       </c>
@@ -2590,8 +2792,11 @@
       <c r="E60" s="12" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>262</v>
       </c>
@@ -2607,8 +2812,11 @@
       <c r="E61" s="12" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>262</v>
       </c>
@@ -2624,8 +2832,11 @@
       <c r="E62" s="12" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>262</v>
       </c>
@@ -2641,8 +2852,11 @@
       <c r="E63" s="12" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>262</v>
       </c>
@@ -2658,8 +2872,11 @@
       <c r="E64" s="12" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>262</v>
       </c>
@@ -2675,8 +2892,11 @@
       <c r="E65" s="12" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>262</v>
       </c>
@@ -2692,8 +2912,11 @@
       <c r="E66" s="12" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>262</v>
       </c>
@@ -2709,8 +2932,11 @@
       <c r="E67" s="12" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
         <v>113</v>
       </c>
@@ -2721,8 +2947,11 @@
       <c r="E68" s="12" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>262</v>
       </c>
@@ -2738,8 +2967,11 @@
       <c r="E69" s="12" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>262</v>
       </c>
@@ -2755,8 +2987,11 @@
       <c r="E70" s="12" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>262</v>
       </c>
@@ -2772,8 +3007,11 @@
       <c r="E71" s="12" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>262</v>
       </c>
@@ -2789,8 +3027,11 @@
       <c r="E72" s="12" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>262</v>
       </c>
@@ -2806,8 +3047,11 @@
       <c r="E73" s="12" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>262</v>
       </c>
@@ -2823,8 +3067,11 @@
       <c r="E74" s="12" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>262</v>
       </c>
@@ -2840,8 +3087,11 @@
       <c r="E75" s="12" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>262</v>
       </c>
@@ -2857,8 +3107,11 @@
       <c r="E76" s="12" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>262</v>
       </c>
@@ -2874,8 +3127,11 @@
       <c r="E77" s="12" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>262</v>
       </c>
@@ -2891,8 +3147,11 @@
       <c r="E78" s="12" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>263</v>
       </c>
@@ -2908,8 +3167,11 @@
       <c r="E79" s="12" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>263</v>
       </c>
@@ -2925,8 +3187,11 @@
       <c r="E80" s="12" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>263</v>
       </c>
@@ -2942,8 +3207,11 @@
       <c r="E81" s="12" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>263</v>
       </c>
@@ -2959,8 +3227,11 @@
       <c r="E82" s="12" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>263</v>
       </c>
@@ -2976,8 +3247,11 @@
       <c r="E83" s="12" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>263</v>
       </c>
@@ -2993,8 +3267,11 @@
       <c r="E84" s="12" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>263</v>
       </c>
@@ -3010,8 +3287,11 @@
       <c r="E85" s="12" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>263</v>
       </c>
@@ -3027,8 +3307,11 @@
       <c r="E86" s="12" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>263</v>
       </c>
@@ -3044,8 +3327,11 @@
       <c r="E87" s="12" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B88" s="7" t="s">
         <v>113</v>
       </c>
@@ -3056,8 +3342,11 @@
       <c r="E88" s="12" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>325</v>
       </c>
@@ -3073,8 +3362,11 @@
       <c r="E89" s="12" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>325</v>
       </c>
@@ -3090,8 +3382,11 @@
       <c r="E90" s="12" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>325</v>
       </c>
@@ -3107,8 +3402,11 @@
       <c r="E91" s="12" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>325</v>
       </c>
@@ -3124,8 +3422,11 @@
       <c r="E92" s="12" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>325</v>
       </c>
@@ -3141,8 +3442,11 @@
       <c r="E93" s="12" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>325</v>
       </c>
@@ -3158,8 +3462,11 @@
       <c r="E94" s="12" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>325</v>
       </c>
@@ -3175,8 +3482,11 @@
       <c r="E95" s="12" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>325</v>
       </c>
@@ -3191,6 +3501,9 @@
       </c>
       <c r="E96" s="12" t="s">
         <v>186</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
@@ -3209,6 +3522,9 @@
       <c r="E97" s="12" t="s">
         <v>188</v>
       </c>
+      <c r="F97" s="17" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
@@ -3226,6 +3542,9 @@
       <c r="E98" s="12" t="s">
         <v>190</v>
       </c>
+      <c r="F98" s="17" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
@@ -3243,6 +3562,9 @@
       <c r="E99" s="12" t="s">
         <v>192</v>
       </c>
+      <c r="F99" s="17" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
@@ -3260,6 +3582,9 @@
       <c r="E100" s="12" t="s">
         <v>194</v>
       </c>
+      <c r="F100" s="17" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
@@ -3277,6 +3602,9 @@
       <c r="E101" s="12" t="s">
         <v>196</v>
       </c>
+      <c r="F101" s="17" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
@@ -3294,6 +3622,9 @@
       <c r="E102" s="12" t="s">
         <v>198</v>
       </c>
+      <c r="F102" s="17" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
@@ -3311,6 +3642,9 @@
       <c r="E103" s="12" t="s">
         <v>200</v>
       </c>
+      <c r="F103" s="17" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
@@ -3328,6 +3662,9 @@
       <c r="E104" s="12" t="s">
         <v>202</v>
       </c>
+      <c r="F104" s="17" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
@@ -3345,6 +3682,9 @@
       <c r="E105" s="12" t="s">
         <v>204</v>
       </c>
+      <c r="F105" s="17" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
@@ -3362,6 +3702,9 @@
       <c r="E106" s="12" t="s">
         <v>206</v>
       </c>
+      <c r="F106" s="17" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
@@ -3379,6 +3722,9 @@
       <c r="E107" s="12" t="s">
         <v>208</v>
       </c>
+      <c r="F107" s="17" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
@@ -3396,6 +3742,9 @@
       <c r="E108" s="12" t="s">
         <v>210</v>
       </c>
+      <c r="F108" s="17" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
@@ -3413,6 +3762,9 @@
       <c r="E109" s="12" t="s">
         <v>212</v>
       </c>
+      <c r="F109" s="17" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
@@ -3430,6 +3782,9 @@
       <c r="E110" s="12" t="s">
         <v>214</v>
       </c>
+      <c r="F110" s="17" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
@@ -3446,6 +3801,9 @@
       </c>
       <c r="E111" s="14" t="s">
         <v>216</v>
+      </c>
+      <c r="F111" s="17" t="s">
+        <v>355</v>
       </c>
       <c r="G111" s="2"/>
       <c r="I111" s="2"/>
@@ -3471,6 +3829,9 @@
       <c r="E112" s="14" t="s">
         <v>218</v>
       </c>
+      <c r="F112" s="17" t="s">
+        <v>355</v>
+      </c>
       <c r="G112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="3"/>
@@ -3479,7 +3840,7 @@
       <c r="M112"/>
       <c r="N112"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>326</v>
       </c>
@@ -3495,8 +3856,11 @@
       <c r="E113" s="14" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>326</v>
       </c>
@@ -3512,8 +3876,11 @@
       <c r="E114" s="14" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>326</v>
       </c>
@@ -3529,8 +3896,11 @@
       <c r="E115" s="14" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>326</v>
       </c>
@@ -3546,8 +3916,11 @@
       <c r="E116" s="14" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>326</v>
       </c>
@@ -3563,8 +3936,11 @@
       <c r="E117" s="14" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>265</v>
       </c>
@@ -3580,8 +3956,11 @@
       <c r="E118" s="15" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>265</v>
       </c>
@@ -3597,8 +3976,11 @@
       <c r="E119" s="15" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>265</v>
       </c>
@@ -3614,8 +3996,11 @@
       <c r="E120" s="15" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>265</v>
       </c>
@@ -3631,8 +4016,11 @@
       <c r="E121" s="15" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>265</v>
       </c>
@@ -3648,8 +4036,11 @@
       <c r="E122" s="15" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F122" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>265</v>
       </c>
@@ -3665,8 +4056,11 @@
       <c r="E123" s="15" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>265</v>
       </c>
@@ -3682,8 +4076,11 @@
       <c r="E124" s="15" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>265</v>
       </c>
@@ -3699,8 +4096,11 @@
       <c r="E125" s="15" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>265</v>
       </c>
@@ -3716,8 +4116,11 @@
       <c r="E126" s="15" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>265</v>
       </c>
@@ -3733,8 +4136,11 @@
       <c r="E127" s="15" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>352</v>
       </c>
@@ -3750,8 +4156,11 @@
       <c r="E128" s="7" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>353</v>
       </c>
@@ -3767,8 +4176,11 @@
       <c r="E129" s="7" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F129" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>352</v>
       </c>
@@ -3784,8 +4196,11 @@
       <c r="E130" s="7" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>353</v>
       </c>
@@ -3801,8 +4216,11 @@
       <c r="E131" s="7" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>352</v>
       </c>
@@ -3818,8 +4236,11 @@
       <c r="E132" s="7" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>353</v>
       </c>
@@ -3835,8 +4256,11 @@
       <c r="E133" s="7" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>353</v>
       </c>
@@ -3852,8 +4276,11 @@
       <c r="E134" s="7" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>353</v>
       </c>
@@ -3869,8 +4296,11 @@
       <c r="E135" s="7" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F135" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>352</v>
       </c>
@@ -3886,8 +4316,11 @@
       <c r="E136" s="7" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>352</v>
       </c>
@@ -3903,8 +4336,12 @@
       <c r="E137" s="7" t="s">
         <v>337</v>
       </c>
+      <c r="F137" s="17" t="s">
+        <v>355</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/prix/laiton.xlsx
+++ b/prix/laiton.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2E360A-941D-4420-9E44-577ABB3E30B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB66EA3-98EC-4489-B699-B1BF6D313D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BA8A27F-C677-4342-8A29-D0C4A22FC515}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="357">
   <si>
     <t>43107601</t>
   </si>
@@ -1104,6 +1104,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -1573,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16140EE4-62C9-4627-8E75-6BE0566E4DDE}">
   <dimension ref="A1:N137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3957,7 +3960,7 @@
         <v>230</v>
       </c>
       <c r="F118" s="17" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -3975,9 +3978,6 @@
       </c>
       <c r="E119" s="15" t="s">
         <v>232</v>
-      </c>
-      <c r="F119" s="17" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">

--- a/prix/laiton.xlsx
+++ b/prix/laiton.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB66EA3-98EC-4489-B699-B1BF6D313D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3270356-5B7C-4FCE-9C76-02E45CB27E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BA8A27F-C677-4342-8A29-D0C4A22FC515}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{2BA8A27F-C677-4342-8A29-D0C4A22FC515}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="355">
   <si>
     <t>43107601</t>
   </si>
@@ -1101,12 +1101,6 @@
   </si>
   <si>
     <t>disponible</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1234,11 +1228,17 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1576,9 +1576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16140EE4-62C9-4627-8E75-6BE0566E4DDE}">
   <dimension ref="A1:N137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="F119" sqref="F119"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1587,7 +1585,7 @@
     <col min="3" max="3" width="23.6640625" style="10" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" style="18" customWidth="1"/>
     <col min="7" max="7" width="51.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" style="2" customWidth="1"/>
     <col min="9" max="9" width="23.77734375" style="1" customWidth="1"/>
@@ -1640,8 +1638,8 @@
       <c r="E2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>355</v>
+      <c r="F2" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -1660,8 +1658,8 @@
       <c r="E3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>355</v>
+      <c r="F3" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1680,8 +1678,8 @@
       <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>355</v>
+      <c r="F4" s="17">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -1700,8 +1698,8 @@
       <c r="E5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>355</v>
+      <c r="F5" s="17">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1720,8 +1718,8 @@
       <c r="E6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>355</v>
+      <c r="F6" s="17">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -1740,8 +1738,8 @@
       <c r="E7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>355</v>
+      <c r="F7" s="17">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -1760,8 +1758,8 @@
       <c r="E8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>355</v>
+      <c r="F8" s="17">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -1780,8 +1778,8 @@
       <c r="E9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>355</v>
+      <c r="F9" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -1800,8 +1798,8 @@
       <c r="E10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>355</v>
+      <c r="F10" s="17">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -1820,8 +1818,8 @@
       <c r="E11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>355</v>
+      <c r="F11" s="17">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1840,8 +1838,8 @@
       <c r="E12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>355</v>
+      <c r="F12" s="17">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1860,8 +1858,8 @@
       <c r="E13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>355</v>
+      <c r="F13" s="17">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1880,8 +1878,8 @@
       <c r="E14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>355</v>
+      <c r="F14" s="17">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1900,8 +1898,8 @@
       <c r="E15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>355</v>
+      <c r="F15" s="17">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1920,8 +1918,8 @@
       <c r="E16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>355</v>
+      <c r="F16" s="17">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1940,8 +1938,8 @@
       <c r="E17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>355</v>
+      <c r="F17" s="17">
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1960,8 +1958,8 @@
       <c r="E18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>355</v>
+      <c r="F18" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1980,8 +1978,8 @@
       <c r="E19" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>355</v>
+      <c r="F19" s="17">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2000,8 +1998,8 @@
       <c r="E20" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>355</v>
+      <c r="F20" s="17">
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2020,8 +2018,8 @@
       <c r="E21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="17" t="s">
-        <v>355</v>
+      <c r="F21" s="17">
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2040,8 +2038,8 @@
       <c r="E22" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="17" t="s">
-        <v>355</v>
+      <c r="F22" s="17">
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2060,8 +2058,8 @@
       <c r="E23" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="17" t="s">
-        <v>355</v>
+      <c r="F23" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2080,8 +2078,8 @@
       <c r="E24" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="17" t="s">
-        <v>355</v>
+      <c r="F24" s="17">
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2100,8 +2098,8 @@
       <c r="E25" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="17" t="s">
-        <v>355</v>
+      <c r="F25" s="17">
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2120,8 +2118,8 @@
       <c r="E26" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="17" t="s">
-        <v>355</v>
+      <c r="F26" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2140,8 +2138,8 @@
       <c r="E27" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="17" t="s">
-        <v>355</v>
+      <c r="F27" s="17">
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2160,8 +2158,8 @@
       <c r="E28" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="17" t="s">
-        <v>355</v>
+      <c r="F28" s="17">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2180,8 +2178,8 @@
       <c r="E29" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="17" t="s">
-        <v>355</v>
+      <c r="F29" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2200,8 +2198,8 @@
       <c r="E30" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="17" t="s">
-        <v>355</v>
+      <c r="F30" s="17">
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2220,8 +2218,8 @@
       <c r="E31" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="17" t="s">
-        <v>355</v>
+      <c r="F31" s="17">
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2240,8 +2238,8 @@
       <c r="E32" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="17" t="s">
-        <v>355</v>
+      <c r="F32" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2260,8 +2258,8 @@
       <c r="E33" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="17" t="s">
-        <v>355</v>
+      <c r="F33" s="17">
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2280,8 +2278,8 @@
       <c r="E34" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="17" t="s">
-        <v>355</v>
+      <c r="F34" s="17">
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2300,8 +2298,8 @@
       <c r="E35" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="17" t="s">
-        <v>355</v>
+      <c r="F35" s="17">
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2320,8 +2318,8 @@
       <c r="E36" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="17" t="s">
-        <v>355</v>
+      <c r="F36" s="17">
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2340,8 +2338,8 @@
       <c r="E37" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F37" s="17" t="s">
-        <v>355</v>
+      <c r="F37" s="17">
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2360,8 +2358,8 @@
       <c r="E38" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="17" t="s">
-        <v>355</v>
+      <c r="F38" s="17">
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2380,8 +2378,8 @@
       <c r="E39" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="17" t="s">
-        <v>355</v>
+      <c r="F39" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2400,8 +2398,8 @@
       <c r="E40" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="17" t="s">
-        <v>355</v>
+      <c r="F40" s="17">
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2420,8 +2418,8 @@
       <c r="E41" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F41" s="17" t="s">
-        <v>355</v>
+      <c r="F41" s="17">
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2440,8 +2438,8 @@
       <c r="E42" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F42" s="17" t="s">
-        <v>355</v>
+      <c r="F42" s="17">
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2460,8 +2458,8 @@
       <c r="E43" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="17" t="s">
-        <v>355</v>
+      <c r="F43" s="17">
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2480,8 +2478,8 @@
       <c r="E44" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="17" t="s">
-        <v>355</v>
+      <c r="F44" s="17">
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2500,8 +2498,8 @@
       <c r="E45" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F45" s="17" t="s">
-        <v>355</v>
+      <c r="F45" s="17">
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2520,8 +2518,8 @@
       <c r="E46" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F46" s="17" t="s">
-        <v>355</v>
+      <c r="F46" s="17">
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2540,8 +2538,8 @@
       <c r="E47" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F47" s="17" t="s">
-        <v>355</v>
+      <c r="F47" s="17">
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2560,8 +2558,8 @@
       <c r="E48" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F48" s="17" t="s">
-        <v>355</v>
+      <c r="F48" s="17">
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2580,8 +2578,8 @@
       <c r="E49" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F49" s="17" t="s">
-        <v>355</v>
+      <c r="F49" s="17">
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2600,8 +2598,8 @@
       <c r="E50" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F50" s="17" t="s">
-        <v>355</v>
+      <c r="F50" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2620,8 +2618,8 @@
       <c r="E51" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="F51" s="17" t="s">
-        <v>355</v>
+      <c r="F51" s="17">
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2640,8 +2638,8 @@
       <c r="E52" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F52" s="17" t="s">
-        <v>355</v>
+      <c r="F52" s="17">
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2660,8 +2658,8 @@
       <c r="E53" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F53" s="17" t="s">
-        <v>355</v>
+      <c r="F53" s="17">
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2680,8 +2678,8 @@
       <c r="E54" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="17" t="s">
-        <v>355</v>
+      <c r="F54" s="17">
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2700,8 +2698,8 @@
       <c r="E55" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="F55" s="17" t="s">
-        <v>355</v>
+      <c r="F55" s="17">
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2720,8 +2718,8 @@
       <c r="E56" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="F56" s="17" t="s">
-        <v>355</v>
+      <c r="F56" s="17">
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2740,8 +2738,8 @@
       <c r="E57" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F57" s="17" t="s">
-        <v>355</v>
+      <c r="F57" s="17">
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2755,8 +2753,8 @@
       <c r="E58" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F58" s="17" t="s">
-        <v>355</v>
+      <c r="F58" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2775,8 +2773,8 @@
       <c r="E59" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F59" s="17" t="s">
-        <v>355</v>
+      <c r="F59" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2795,8 +2793,8 @@
       <c r="E60" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F60" s="17" t="s">
-        <v>355</v>
+      <c r="F60" s="17">
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2815,8 +2813,8 @@
       <c r="E61" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F61" s="17" t="s">
-        <v>355</v>
+      <c r="F61" s="17">
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2835,8 +2833,8 @@
       <c r="E62" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="F62" s="17" t="s">
-        <v>355</v>
+      <c r="F62" s="17">
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2855,8 +2853,8 @@
       <c r="E63" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F63" s="17" t="s">
-        <v>355</v>
+      <c r="F63" s="17">
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2875,8 +2873,8 @@
       <c r="E64" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F64" s="17" t="s">
-        <v>355</v>
+      <c r="F64" s="17">
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2895,8 +2893,8 @@
       <c r="E65" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="F65" s="17" t="s">
-        <v>355</v>
+      <c r="F65" s="17">
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2915,8 +2913,8 @@
       <c r="E66" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F66" s="17" t="s">
-        <v>355</v>
+      <c r="F66" s="17">
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2935,8 +2933,8 @@
       <c r="E67" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="F67" s="17" t="s">
-        <v>355</v>
+      <c r="F67" s="17">
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2950,8 +2948,8 @@
       <c r="E68" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F68" s="17" t="s">
-        <v>355</v>
+      <c r="F68" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2970,8 +2968,8 @@
       <c r="E69" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="F69" s="17" t="s">
-        <v>355</v>
+      <c r="F69" s="17">
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2990,8 +2988,8 @@
       <c r="E70" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="F70" s="17" t="s">
-        <v>355</v>
+      <c r="F70" s="17">
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -3010,8 +3008,8 @@
       <c r="E71" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="F71" s="17" t="s">
-        <v>355</v>
+      <c r="F71" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -3030,8 +3028,8 @@
       <c r="E72" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="F72" s="17" t="s">
-        <v>355</v>
+      <c r="F72" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -3050,8 +3048,8 @@
       <c r="E73" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F73" s="17" t="s">
-        <v>355</v>
+      <c r="F73" s="17">
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3070,8 +3068,8 @@
       <c r="E74" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="F74" s="17" t="s">
-        <v>355</v>
+      <c r="F74" s="17">
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3090,8 +3088,8 @@
       <c r="E75" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="F75" s="17" t="s">
-        <v>355</v>
+      <c r="F75" s="17">
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3110,8 +3108,8 @@
       <c r="E76" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="F76" s="17" t="s">
-        <v>355</v>
+      <c r="F76" s="17">
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3130,8 +3128,8 @@
       <c r="E77" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="F77" s="17" t="s">
-        <v>355</v>
+      <c r="F77" s="17">
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3150,8 +3148,8 @@
       <c r="E78" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="F78" s="17" t="s">
-        <v>355</v>
+      <c r="F78" s="17">
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3170,8 +3168,8 @@
       <c r="E79" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="F79" s="17" t="s">
-        <v>355</v>
+      <c r="F79" s="17">
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3190,8 +3188,8 @@
       <c r="E80" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="F80" s="17" t="s">
-        <v>355</v>
+      <c r="F80" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3210,8 +3208,8 @@
       <c r="E81" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="F81" s="17" t="s">
-        <v>355</v>
+      <c r="F81" s="17">
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3230,8 +3228,8 @@
       <c r="E82" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="F82" s="17" t="s">
-        <v>355</v>
+      <c r="F82" s="17">
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3250,8 +3248,8 @@
       <c r="E83" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="F83" s="17" t="s">
-        <v>355</v>
+      <c r="F83" s="17">
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3270,8 +3268,8 @@
       <c r="E84" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="F84" s="17" t="s">
-        <v>355</v>
+      <c r="F84" s="17">
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3290,8 +3288,8 @@
       <c r="E85" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="F85" s="17" t="s">
-        <v>355</v>
+      <c r="F85" s="17">
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3310,8 +3308,8 @@
       <c r="E86" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="F86" s="17" t="s">
-        <v>355</v>
+      <c r="F86" s="17">
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3330,8 +3328,8 @@
       <c r="E87" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="F87" s="17" t="s">
-        <v>355</v>
+      <c r="F87" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3345,8 +3343,8 @@
       <c r="E88" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="F88" s="17" t="s">
-        <v>355</v>
+      <c r="F88" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -3365,8 +3363,8 @@
       <c r="E89" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="F89" s="17" t="s">
-        <v>355</v>
+      <c r="F89" s="17">
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -3385,8 +3383,8 @@
       <c r="E90" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="F90" s="17" t="s">
-        <v>355</v>
+      <c r="F90" s="17">
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -3405,8 +3403,8 @@
       <c r="E91" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="F91" s="17" t="s">
-        <v>355</v>
+      <c r="F91" s="17">
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -3425,8 +3423,8 @@
       <c r="E92" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="F92" s="17" t="s">
-        <v>355</v>
+      <c r="F92" s="17">
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -3445,8 +3443,8 @@
       <c r="E93" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="F93" s="17" t="s">
-        <v>355</v>
+      <c r="F93" s="17">
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -3465,8 +3463,8 @@
       <c r="E94" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="F94" s="17" t="s">
-        <v>355</v>
+      <c r="F94" s="17">
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -3485,8 +3483,8 @@
       <c r="E95" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="F95" s="17" t="s">
-        <v>355</v>
+      <c r="F95" s="17">
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3505,8 +3503,8 @@
       <c r="E96" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="F96" s="17" t="s">
-        <v>355</v>
+      <c r="F96" s="17">
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
@@ -3525,8 +3523,8 @@
       <c r="E97" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="F97" s="17" t="s">
-        <v>355</v>
+      <c r="F97" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
@@ -3545,8 +3543,8 @@
       <c r="E98" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="F98" s="17" t="s">
-        <v>355</v>
+      <c r="F98" s="17">
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
@@ -3565,8 +3563,8 @@
       <c r="E99" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="F99" s="17" t="s">
-        <v>355</v>
+      <c r="F99" s="17">
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
@@ -3585,8 +3583,8 @@
       <c r="E100" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="F100" s="17" t="s">
-        <v>355</v>
+      <c r="F100" s="17">
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
@@ -3605,8 +3603,8 @@
       <c r="E101" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="F101" s="17" t="s">
-        <v>355</v>
+      <c r="F101" s="17">
+        <v>21</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
@@ -3625,8 +3623,8 @@
       <c r="E102" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="F102" s="17" t="s">
-        <v>355</v>
+      <c r="F102" s="17">
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
@@ -3645,8 +3643,8 @@
       <c r="E103" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="F103" s="17" t="s">
-        <v>355</v>
+      <c r="F103" s="17">
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
@@ -3665,8 +3663,8 @@
       <c r="E104" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="F104" s="17" t="s">
-        <v>355</v>
+      <c r="F104" s="17">
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
@@ -3685,8 +3683,8 @@
       <c r="E105" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="F105" s="17" t="s">
-        <v>355</v>
+      <c r="F105" s="17">
+        <v>27</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
@@ -3705,8 +3703,8 @@
       <c r="E106" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="F106" s="17" t="s">
-        <v>355</v>
+      <c r="F106" s="17">
+        <v>34</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
@@ -3725,8 +3723,8 @@
       <c r="E107" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="F107" s="17" t="s">
-        <v>355</v>
+      <c r="F107" s="17">
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
@@ -3745,8 +3743,8 @@
       <c r="E108" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="F108" s="17" t="s">
-        <v>355</v>
+      <c r="F108" s="17">
+        <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
@@ -3765,8 +3763,8 @@
       <c r="E109" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="F109" s="17" t="s">
-        <v>355</v>
+      <c r="F109" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
@@ -3785,8 +3783,8 @@
       <c r="E110" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F110" s="17" t="s">
-        <v>355</v>
+      <c r="F110" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
@@ -3805,8 +3803,8 @@
       <c r="E111" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="F111" s="17" t="s">
-        <v>355</v>
+      <c r="F111" s="19">
+        <v>0</v>
       </c>
       <c r="G111" s="2"/>
       <c r="I111" s="2"/>
@@ -3832,8 +3830,8 @@
       <c r="E112" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="F112" s="17" t="s">
-        <v>355</v>
+      <c r="F112" s="19">
+        <v>1</v>
       </c>
       <c r="G112" s="2"/>
       <c r="I112" s="2"/>
@@ -3859,8 +3857,8 @@
       <c r="E113" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="F113" s="17" t="s">
-        <v>355</v>
+      <c r="F113" s="19">
+        <v>32</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -3879,8 +3877,8 @@
       <c r="E114" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="F114" s="17" t="s">
-        <v>355</v>
+      <c r="F114" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -3899,8 +3897,8 @@
       <c r="E115" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="F115" s="17" t="s">
-        <v>355</v>
+      <c r="F115" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -3919,8 +3917,8 @@
       <c r="E116" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="F116" s="17" t="s">
-        <v>355</v>
+      <c r="F116" s="19">
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -3939,8 +3937,8 @@
       <c r="E117" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="F117" s="17" t="s">
-        <v>355</v>
+      <c r="F117" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -3959,8 +3957,8 @@
       <c r="E118" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="F118" s="17" t="s">
-        <v>356</v>
+      <c r="F118" s="19">
+        <v>27</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -3979,6 +3977,9 @@
       <c r="E119" s="15" t="s">
         <v>232</v>
       </c>
+      <c r="F119" s="19">
+        <v>22</v>
+      </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
@@ -3996,8 +3997,8 @@
       <c r="E120" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="F120" s="17" t="s">
-        <v>355</v>
+      <c r="F120" s="19">
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -4016,8 +4017,8 @@
       <c r="E121" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="F121" s="17" t="s">
-        <v>355</v>
+      <c r="F121" s="19">
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -4036,8 +4037,8 @@
       <c r="E122" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="F122" s="17" t="s">
-        <v>355</v>
+      <c r="F122" s="19">
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -4056,8 +4057,8 @@
       <c r="E123" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="F123" s="17" t="s">
-        <v>355</v>
+      <c r="F123" s="19">
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -4076,8 +4077,8 @@
       <c r="E124" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="F124" s="17" t="s">
-        <v>355</v>
+      <c r="F124" s="19">
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -4096,8 +4097,8 @@
       <c r="E125" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="F125" s="17" t="s">
-        <v>355</v>
+      <c r="F125" s="19">
+        <v>23</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -4116,8 +4117,8 @@
       <c r="E126" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="F126" s="17" t="s">
-        <v>355</v>
+      <c r="F126" s="19">
+        <v>25</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -4136,8 +4137,8 @@
       <c r="E127" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="F127" s="17" t="s">
-        <v>355</v>
+      <c r="F127" s="19">
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -4156,8 +4157,8 @@
       <c r="E128" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="F128" s="17" t="s">
-        <v>355</v>
+      <c r="F128" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -4176,8 +4177,8 @@
       <c r="E129" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F129" s="17" t="s">
-        <v>355</v>
+      <c r="F129" s="19">
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -4196,8 +4197,8 @@
       <c r="E130" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F130" s="17" t="s">
-        <v>355</v>
+      <c r="F130" s="19">
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -4216,8 +4217,8 @@
       <c r="E131" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F131" s="17" t="s">
-        <v>355</v>
+      <c r="F131" s="19">
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -4236,8 +4237,8 @@
       <c r="E132" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="F132" s="17" t="s">
-        <v>355</v>
+      <c r="F132" s="19">
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -4256,8 +4257,8 @@
       <c r="E133" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F133" s="17" t="s">
-        <v>355</v>
+      <c r="F133" s="19">
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -4276,8 +4277,8 @@
       <c r="E134" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F134" s="17" t="s">
-        <v>355</v>
+      <c r="F134" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -4296,8 +4297,8 @@
       <c r="E135" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F135" s="17" t="s">
-        <v>355</v>
+      <c r="F135" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -4316,8 +4317,8 @@
       <c r="E136" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F136" s="17" t="s">
-        <v>355</v>
+      <c r="F136" s="19">
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -4336,8 +4337,8 @@
       <c r="E137" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="F137" s="17" t="s">
-        <v>355</v>
+      <c r="F137" s="19">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/prix/laiton.xlsx
+++ b/prix/laiton.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3270356-5B7C-4FCE-9C76-02E45CB27E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200F8FD1-2CDC-46A8-BB93-73888F6DD1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{2BA8A27F-C677-4342-8A29-D0C4A22FC515}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BA8A27F-C677-4342-8A29-D0C4A22FC515}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="356">
   <si>
     <t>43107601</t>
   </si>
@@ -1101,6 +1101,9 @@
   </si>
   <si>
     <t>disponible</t>
+  </si>
+  <si>
+    <t>laiton/reduction-m-f.png</t>
   </si>
 </sst>
 </file>
@@ -1576,7 +1579,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16140EE4-62C9-4627-8E75-6BE0566E4DDE}">
   <dimension ref="A1:N137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:A67"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2759,7 +2764,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>262</v>
+        <v>355</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>115</v>
@@ -2779,7 +2784,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>262</v>
+        <v>355</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>117</v>
@@ -2799,7 +2804,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>262</v>
+        <v>355</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>119</v>
@@ -2819,7 +2824,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>262</v>
+        <v>355</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>121</v>
@@ -2839,7 +2844,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>262</v>
+        <v>355</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>123</v>
@@ -2859,7 +2864,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>262</v>
+        <v>355</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>125</v>
@@ -2879,7 +2884,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>262</v>
+        <v>355</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>127</v>
@@ -2899,7 +2904,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>262</v>
+        <v>355</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>129</v>
@@ -2919,7 +2924,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>262</v>
+        <v>355</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>131</v>

--- a/prix/laiton.xlsx
+++ b/prix/laiton.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200F8FD1-2CDC-46A8-BB93-73888F6DD1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7497F98-84EB-4E52-A411-765E1820B86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BA8A27F-C677-4342-8A29-D0C4A22FC515}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{2BA8A27F-C677-4342-8A29-D0C4A22FC515}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1186,7 +1186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1222,9 +1222,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1239,9 +1236,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1579,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16140EE4-62C9-4627-8E75-6BE0566E4DDE}">
   <dimension ref="A1:N137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:A67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1590,7 +1584,7 @@
     <col min="3" max="3" width="23.6640625" style="10" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" style="17" customWidth="1"/>
     <col min="7" max="7" width="51.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" style="2" customWidth="1"/>
     <col min="9" max="9" width="23.77734375" style="1" customWidth="1"/>
@@ -1615,7 +1609,7 @@
       <c r="E1" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>354</v>
       </c>
       <c r="G1" s="1"/>
@@ -1643,7 +1637,7 @@
       <c r="E2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1663,7 +1657,7 @@
       <c r="E3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1683,7 +1677,7 @@
       <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>18</v>
       </c>
     </row>
@@ -1703,7 +1697,7 @@
       <c r="E5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>34</v>
       </c>
     </row>
@@ -1723,7 +1717,7 @@
       <c r="E6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>17</v>
       </c>
     </row>
@@ -1743,7 +1737,7 @@
       <c r="E7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>16</v>
       </c>
     </row>
@@ -1763,7 +1757,7 @@
       <c r="E8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>6</v>
       </c>
     </row>
@@ -1783,7 +1777,7 @@
       <c r="E9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1803,7 +1797,7 @@
       <c r="E10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>15</v>
       </c>
     </row>
@@ -1823,7 +1817,7 @@
       <c r="E11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <v>12</v>
       </c>
     </row>
@@ -1843,7 +1837,7 @@
       <c r="E12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <v>17</v>
       </c>
     </row>
@@ -1863,7 +1857,7 @@
       <c r="E13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <v>21</v>
       </c>
     </row>
@@ -1883,7 +1877,7 @@
       <c r="E14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="16">
         <v>17</v>
       </c>
     </row>
@@ -1898,12 +1892,12 @@
         <v>272</v>
       </c>
       <c r="D15" s="8">
-        <v>3.48</v>
+        <v>1.69</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="16">
         <v>18</v>
       </c>
     </row>
@@ -1923,7 +1917,7 @@
       <c r="E16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <v>7</v>
       </c>
     </row>
@@ -1943,7 +1937,7 @@
       <c r="E17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="16">
         <v>6</v>
       </c>
     </row>
@@ -1957,13 +1951,13 @@
       <c r="C18" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="8">
         <v>7.2700000000000005</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1977,13 +1971,13 @@
       <c r="C19" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="8">
         <v>6.63</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="16">
         <v>5</v>
       </c>
     </row>
@@ -1997,13 +1991,13 @@
       <c r="C20" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="8">
         <v>8.66</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="16">
         <v>5</v>
       </c>
     </row>
@@ -2017,13 +2011,13 @@
       <c r="C21" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="8">
         <v>13.950000000000001</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="16">
         <v>8</v>
       </c>
     </row>
@@ -2037,13 +2031,13 @@
       <c r="C22" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="8">
         <v>23.04</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="16">
         <v>6</v>
       </c>
     </row>
@@ -2057,13 +2051,13 @@
       <c r="C23" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="8">
         <v>34.5</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="16">
         <v>1</v>
       </c>
     </row>
@@ -2077,13 +2071,13 @@
       <c r="C24" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="8">
         <v>5.15</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="16">
         <v>5</v>
       </c>
     </row>
@@ -2097,13 +2091,13 @@
       <c r="C25" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="8">
         <v>8.7799999999999994</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="16">
         <v>9</v>
       </c>
     </row>
@@ -2117,13 +2111,13 @@
       <c r="C26" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="8">
         <v>14.94</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="16">
         <v>3</v>
       </c>
     </row>
@@ -2137,13 +2131,13 @@
       <c r="C27" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="8">
         <v>27.09</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="16">
         <v>5</v>
       </c>
     </row>
@@ -2157,13 +2151,13 @@
       <c r="C28" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="8">
         <v>53.88</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="16">
         <v>5</v>
       </c>
     </row>
@@ -2177,13 +2171,13 @@
       <c r="C29" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="8">
         <v>53.88</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2197,13 +2191,13 @@
       <c r="C30" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="8">
         <v>10.620000000000001</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="16">
         <v>20</v>
       </c>
     </row>
@@ -2217,13 +2211,13 @@
       <c r="C31" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="8">
         <v>16.13</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="16">
         <v>4</v>
       </c>
     </row>
@@ -2237,13 +2231,13 @@
       <c r="C32" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="8">
         <v>2.86</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2257,13 +2251,13 @@
       <c r="C33" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="8">
         <v>2.04</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="16">
         <v>13</v>
       </c>
     </row>
@@ -2277,13 +2271,13 @@
       <c r="C34" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="8">
         <v>3.11</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="16">
         <v>22</v>
       </c>
     </row>
@@ -2297,14 +2291,14 @@
       <c r="C35" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="8">
         <v>4.03</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="17">
-        <v>8</v>
+      <c r="F35" s="16">
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2317,13 +2311,13 @@
       <c r="C36" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="8">
         <v>7.51</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="16">
         <v>9</v>
       </c>
     </row>
@@ -2337,13 +2331,13 @@
       <c r="C37" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="8">
         <v>15.52</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="16">
         <v>7</v>
       </c>
     </row>
@@ -2357,13 +2351,13 @@
       <c r="C38" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="8">
         <v>17.64</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="16">
         <v>27</v>
       </c>
     </row>
@@ -2377,13 +2371,13 @@
       <c r="C39" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="8">
         <v>10.1</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2397,13 +2391,13 @@
       <c r="C40" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="8">
         <v>6.15</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="16">
         <v>10</v>
       </c>
     </row>
@@ -2417,13 +2411,13 @@
       <c r="C41" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="8">
         <v>0.91</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="16">
         <v>10</v>
       </c>
     </row>
@@ -2437,13 +2431,13 @@
       <c r="C42" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="8">
         <v>1.98</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="16">
         <v>17</v>
       </c>
     </row>
@@ -2457,13 +2451,13 @@
       <c r="C43" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="8">
         <v>1.06</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="16">
         <v>6</v>
       </c>
     </row>
@@ -2477,14 +2471,14 @@
       <c r="C44" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="8">
         <v>1.36</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="17">
-        <v>30</v>
+      <c r="F44" s="16">
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2497,14 +2491,14 @@
       <c r="C45" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="8">
         <v>1.57</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F45" s="17">
-        <v>21</v>
+      <c r="F45" s="16">
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2517,13 +2511,13 @@
       <c r="C46" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="8">
         <v>2.95</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="16">
         <v>30</v>
       </c>
     </row>
@@ -2537,13 +2531,13 @@
       <c r="C47" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="8">
         <v>6.49</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="16">
         <v>4</v>
       </c>
     </row>
@@ -2557,13 +2551,13 @@
       <c r="C48" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="8">
         <v>6.44</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="16">
         <v>6</v>
       </c>
     </row>
@@ -2577,13 +2571,13 @@
       <c r="C49" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="8">
         <v>1.1100000000000001</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="16">
         <v>10</v>
       </c>
     </row>
@@ -2597,13 +2591,13 @@
       <c r="C50" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="8">
         <v>1.62</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2617,13 +2611,13 @@
       <c r="C51" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="8">
         <v>1.98</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="16">
         <v>14</v>
       </c>
     </row>
@@ -2637,13 +2631,13 @@
       <c r="C52" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="8">
         <v>1.84</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="16">
         <v>2</v>
       </c>
     </row>
@@ -2657,13 +2651,13 @@
       <c r="C53" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="8">
         <v>1.94</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="16">
         <v>42</v>
       </c>
     </row>
@@ -2677,13 +2671,13 @@
       <c r="C54" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D54" s="8">
         <v>2.57</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="16">
         <v>26</v>
       </c>
     </row>
@@ -2697,13 +2691,13 @@
       <c r="C55" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D55" s="8">
         <v>5.66</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F55" s="16">
         <v>16</v>
       </c>
     </row>
@@ -2717,13 +2711,13 @@
       <c r="C56" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D56" s="8">
         <v>7.0200000000000005</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="16">
         <v>6</v>
       </c>
     </row>
@@ -2737,13 +2731,13 @@
       <c r="C57" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="8">
         <v>5.45</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="16">
         <v>7</v>
       </c>
     </row>
@@ -2752,13 +2746,13 @@
         <v>113</v>
       </c>
       <c r="C58" s="7"/>
-      <c r="D58" s="13">
+      <c r="D58" s="8">
         <v>0</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2772,13 +2766,13 @@
       <c r="C59" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D59" s="8">
         <v>0.65</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2792,13 +2786,13 @@
       <c r="C60" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D60" s="8">
         <v>0.65</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="16">
         <v>4</v>
       </c>
     </row>
@@ -2812,13 +2806,13 @@
       <c r="C61" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D61" s="8">
         <v>0.63</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F61" s="16">
         <v>-1</v>
       </c>
     </row>
@@ -2832,13 +2826,13 @@
       <c r="C62" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D62" s="8">
         <v>1.31</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62" s="16">
         <v>27</v>
       </c>
     </row>
@@ -2852,14 +2846,14 @@
       <c r="C63" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D63" s="8">
         <v>1.21</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F63" s="17">
-        <v>36</v>
+      <c r="F63" s="16">
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2872,13 +2866,13 @@
       <c r="C64" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="8">
         <v>2.44</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F64" s="16">
         <v>27</v>
       </c>
     </row>
@@ -2892,13 +2886,13 @@
       <c r="C65" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="8">
         <v>2.13</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F65" s="16">
         <v>40</v>
       </c>
     </row>
@@ -2912,13 +2906,13 @@
       <c r="C66" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D66" s="8">
         <v>4.1100000000000003</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F66" s="16">
         <v>14</v>
       </c>
     </row>
@@ -2932,13 +2926,13 @@
       <c r="C67" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D67" s="8">
         <v>5.54</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F67" s="16">
         <v>10</v>
       </c>
     </row>
@@ -2947,13 +2941,13 @@
         <v>113</v>
       </c>
       <c r="C68" s="7"/>
-      <c r="D68" s="13">
+      <c r="D68" s="8">
         <v>0</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F68" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2967,13 +2961,13 @@
       <c r="C69" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D69" s="8">
         <v>4.9400000000000004</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F69" s="16">
         <v>14</v>
       </c>
     </row>
@@ -2987,13 +2981,13 @@
       <c r="C70" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D70" s="8">
         <v>1.21</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F70" s="16">
         <v>10</v>
       </c>
     </row>
@@ -3007,13 +3001,13 @@
       <c r="C71" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D71" s="8">
         <v>1.0900000000000001</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F71" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3027,13 +3021,13 @@
       <c r="C72" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D72" s="8">
         <v>1.6500000000000001</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F72" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3047,13 +3041,13 @@
       <c r="C73" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D73" s="8">
         <v>1.1400000000000001</v>
       </c>
       <c r="E73" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F73" s="16">
         <v>10</v>
       </c>
     </row>
@@ -3067,13 +3061,13 @@
       <c r="C74" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D74" s="8">
         <v>1.6</v>
       </c>
       <c r="E74" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F74" s="16">
         <v>22</v>
       </c>
     </row>
@@ -3087,13 +3081,13 @@
       <c r="C75" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D75" s="8">
         <v>2.73</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="F75" s="17">
+      <c r="F75" s="16">
         <v>16</v>
       </c>
     </row>
@@ -3107,14 +3101,14 @@
       <c r="C76" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D76" s="8">
         <v>2.71</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="F76" s="17">
-        <v>17</v>
+      <c r="F76" s="16">
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3127,13 +3121,13 @@
       <c r="C77" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D77" s="8">
         <v>5.9</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="F77" s="17">
+      <c r="F77" s="16">
         <v>15</v>
       </c>
     </row>
@@ -3147,13 +3141,13 @@
       <c r="C78" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D78" s="8">
         <v>7.7700000000000005</v>
       </c>
       <c r="E78" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="F78" s="17">
+      <c r="F78" s="16">
         <v>2</v>
       </c>
     </row>
@@ -3167,13 +3161,13 @@
       <c r="C79" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D79" s="8">
         <v>1.0900000000000001</v>
       </c>
       <c r="E79" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="F79" s="17">
+      <c r="F79" s="16">
         <v>9</v>
       </c>
     </row>
@@ -3187,13 +3181,13 @@
       <c r="C80" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D80" s="8">
         <v>1.1100000000000001</v>
       </c>
       <c r="E80" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F80" s="16">
         <v>1</v>
       </c>
     </row>
@@ -3207,13 +3201,13 @@
       <c r="C81" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D81" s="8">
         <v>2.57</v>
       </c>
       <c r="E81" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="F81" s="17">
+      <c r="F81" s="16">
         <v>27</v>
       </c>
     </row>
@@ -3227,14 +3221,14 @@
       <c r="C82" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D82" s="8">
         <v>2.9</v>
       </c>
       <c r="E82" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="F82" s="17">
-        <v>12</v>
+      <c r="F82" s="16">
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3247,13 +3241,13 @@
       <c r="C83" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D83" s="8">
         <v>3.44</v>
       </c>
       <c r="E83" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="F83" s="17">
+      <c r="F83" s="16">
         <v>21</v>
       </c>
     </row>
@@ -3267,13 +3261,13 @@
       <c r="C84" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="D84" s="13">
+      <c r="D84" s="8">
         <v>3.44</v>
       </c>
       <c r="E84" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="F84" s="17">
+      <c r="F84" s="16">
         <v>18</v>
       </c>
     </row>
@@ -3287,13 +3281,13 @@
       <c r="C85" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D85" s="13">
+      <c r="D85" s="8">
         <v>6.17</v>
       </c>
       <c r="E85" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="F85" s="17">
+      <c r="F85" s="16">
         <v>21</v>
       </c>
     </row>
@@ -3307,13 +3301,13 @@
       <c r="C86" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="D86" s="13">
+      <c r="D86" s="8">
         <v>5.74</v>
       </c>
       <c r="E86" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="F86" s="17">
+      <c r="F86" s="16">
         <v>4</v>
       </c>
     </row>
@@ -3327,13 +3321,13 @@
       <c r="C87" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D87" s="13">
-        <v>6</v>
+      <c r="D87" s="8">
+        <v>10.84</v>
       </c>
       <c r="E87" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="F87" s="17">
+      <c r="F87" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3342,13 +3336,13 @@
         <v>113</v>
       </c>
       <c r="C88" s="7"/>
-      <c r="D88" s="13">
+      <c r="D88" s="8">
         <v>0</v>
       </c>
       <c r="E88" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="F88" s="17">
+      <c r="F88" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3362,13 +3356,13 @@
       <c r="C89" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D89" s="13">
+      <c r="D89" s="8">
         <v>0.82000000000000006</v>
       </c>
       <c r="E89" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="F89" s="17">
+      <c r="F89" s="16">
         <v>8</v>
       </c>
     </row>
@@ -3382,14 +3376,14 @@
       <c r="C90" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D90" s="13">
+      <c r="D90" s="8">
         <v>2.52</v>
       </c>
       <c r="E90" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="F90" s="17">
-        <v>9</v>
+      <c r="F90" s="16">
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -3402,13 +3396,13 @@
       <c r="C91" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D91" s="13">
+      <c r="D91" s="8">
         <v>1.26</v>
       </c>
       <c r="E91" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="F91" s="17">
+      <c r="F91" s="16">
         <v>36</v>
       </c>
     </row>
@@ -3422,13 +3416,13 @@
       <c r="C92" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D92" s="13">
+      <c r="D92" s="8">
         <v>1.74</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="F92" s="17">
+      <c r="F92" s="16">
         <v>55</v>
       </c>
     </row>
@@ -3442,14 +3436,14 @@
       <c r="C93" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="D93" s="13">
+      <c r="D93" s="8">
         <v>2.42</v>
       </c>
       <c r="E93" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="F93" s="17">
-        <v>16</v>
+      <c r="F93" s="16">
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -3462,13 +3456,13 @@
       <c r="C94" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D94" s="13">
+      <c r="D94" s="8">
         <v>4.09</v>
       </c>
       <c r="E94" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="F94" s="17">
+      <c r="F94" s="16">
         <v>9</v>
       </c>
     </row>
@@ -3482,13 +3476,13 @@
       <c r="C95" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D95" s="13">
+      <c r="D95" s="8">
         <v>7.57</v>
       </c>
       <c r="E95" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="F95" s="17">
+      <c r="F95" s="16">
         <v>5</v>
       </c>
     </row>
@@ -3502,13 +3496,13 @@
       <c r="C96" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D96" s="13">
+      <c r="D96" s="8">
         <v>9.75</v>
       </c>
       <c r="E96" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="F96" s="17">
+      <c r="F96" s="16">
         <v>13</v>
       </c>
     </row>
@@ -3522,14 +3516,14 @@
       <c r="C97" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="D97" s="13">
+      <c r="D97" s="8">
         <v>8.42</v>
       </c>
       <c r="E97" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="F97" s="17">
-        <v>0</v>
+      <c r="F97" s="16">
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
@@ -3542,13 +3536,13 @@
       <c r="C98" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D98" s="13">
+      <c r="D98" s="8">
         <v>6.95</v>
       </c>
       <c r="E98" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="F98" s="17">
+      <c r="F98" s="16">
         <v>7</v>
       </c>
     </row>
@@ -3562,13 +3556,13 @@
       <c r="C99" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D99" s="13">
+      <c r="D99" s="8">
         <v>1.77</v>
       </c>
       <c r="E99" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="F99" s="17">
+      <c r="F99" s="16">
         <v>9</v>
       </c>
     </row>
@@ -3582,14 +3576,14 @@
       <c r="C100" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D100" s="13">
+      <c r="D100" s="8">
         <v>2.73</v>
       </c>
       <c r="E100" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="F100" s="17">
-        <v>37</v>
+      <c r="F100" s="16">
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
@@ -3602,14 +3596,14 @@
       <c r="C101" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D101" s="13">
+      <c r="D101" s="8">
         <v>3.56</v>
       </c>
       <c r="E101" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="F101" s="17">
-        <v>21</v>
+      <c r="F101" s="16">
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
@@ -3622,13 +3616,13 @@
       <c r="C102" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D102" s="13">
+      <c r="D102" s="8">
         <v>7.36</v>
       </c>
       <c r="E102" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="F102" s="17">
+      <c r="F102" s="16">
         <v>15</v>
       </c>
     </row>
@@ -3642,13 +3636,13 @@
       <c r="C103" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D103" s="13">
+      <c r="D103" s="8">
         <v>15.58</v>
       </c>
       <c r="E103" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="F103" s="17">
+      <c r="F103" s="16">
         <v>4</v>
       </c>
     </row>
@@ -3662,13 +3656,13 @@
       <c r="C104" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D104" s="13">
+      <c r="D104" s="8">
         <v>18.830000000000002</v>
       </c>
       <c r="E104" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="F104" s="17">
+      <c r="F104" s="16">
         <v>4</v>
       </c>
     </row>
@@ -3682,13 +3676,13 @@
       <c r="C105" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D105" s="13">
+      <c r="D105" s="8">
         <v>1.77</v>
       </c>
       <c r="E105" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="F105" s="17">
+      <c r="F105" s="16">
         <v>27</v>
       </c>
     </row>
@@ -3702,13 +3696,13 @@
       <c r="C106" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D106" s="13">
+      <c r="D106" s="8">
         <v>2.11</v>
       </c>
       <c r="E106" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="F106" s="17">
+      <c r="F106" s="16">
         <v>34</v>
       </c>
     </row>
@@ -3722,13 +3716,13 @@
       <c r="C107" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D107" s="13">
+      <c r="D107" s="8">
         <v>3.92</v>
       </c>
       <c r="E107" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="F107" s="17">
+      <c r="F107" s="16">
         <v>14</v>
       </c>
     </row>
@@ -3742,14 +3736,14 @@
       <c r="C108" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D108" s="13">
+      <c r="D108" s="8">
         <v>6.07</v>
       </c>
       <c r="E108" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="F108" s="17">
-        <v>13</v>
+      <c r="F108" s="16">
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
@@ -3762,13 +3756,13 @@
       <c r="C109" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D109" s="13">
+      <c r="D109" s="8">
         <v>14.35</v>
       </c>
       <c r="E109" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="F109" s="17">
+      <c r="F109" s="16">
         <v>3</v>
       </c>
     </row>
@@ -3782,13 +3776,13 @@
       <c r="C110" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D110" s="13">
+      <c r="D110" s="8">
         <v>17.420000000000002</v>
       </c>
       <c r="E110" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F110" s="17">
+      <c r="F110" s="16">
         <v>1</v>
       </c>
     </row>
@@ -3805,10 +3799,10 @@
       <c r="D111" s="8">
         <v>6.23</v>
       </c>
-      <c r="E111" s="14" t="s">
+      <c r="E111" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="F111" s="19">
+      <c r="F111" s="16">
         <v>0</v>
       </c>
       <c r="G111" s="2"/>
@@ -3832,10 +3826,10 @@
       <c r="D112" s="8">
         <v>7.5</v>
       </c>
-      <c r="E112" s="14" t="s">
+      <c r="E112" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="F112" s="19">
+      <c r="F112" s="16">
         <v>1</v>
       </c>
       <c r="G112" s="2"/>
@@ -3859,10 +3853,10 @@
       <c r="D113" s="8">
         <v>5.76</v>
       </c>
-      <c r="E113" s="14" t="s">
+      <c r="E113" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="F113" s="19">
+      <c r="F113" s="16">
         <v>32</v>
       </c>
     </row>
@@ -3879,10 +3873,10 @@
       <c r="D114" s="8">
         <v>10.51</v>
       </c>
-      <c r="E114" s="14" t="s">
+      <c r="E114" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="F114" s="19">
+      <c r="F114" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3899,10 +3893,10 @@
       <c r="D115" s="8">
         <v>10.25</v>
       </c>
-      <c r="E115" s="14" t="s">
+      <c r="E115" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="F115" s="19">
+      <c r="F115" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3919,10 +3913,10 @@
       <c r="D116" s="8">
         <v>7.01</v>
       </c>
-      <c r="E116" s="14" t="s">
+      <c r="E116" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="F116" s="19">
+      <c r="F116" s="16">
         <v>8</v>
       </c>
     </row>
@@ -3939,10 +3933,10 @@
       <c r="D117" s="8">
         <v>15.58</v>
       </c>
-      <c r="E117" s="14" t="s">
+      <c r="E117" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="F117" s="19">
+      <c r="F117" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3959,11 +3953,11 @@
       <c r="D118" s="8">
         <v>1.61</v>
       </c>
-      <c r="E118" s="15" t="s">
+      <c r="E118" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="F118" s="19">
-        <v>27</v>
+      <c r="F118" s="16">
+        <v>26</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -3979,10 +3973,10 @@
       <c r="D119" s="8">
         <v>2.35</v>
       </c>
-      <c r="E119" s="15" t="s">
+      <c r="E119" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="F119" s="19">
+      <c r="F119" s="16">
         <v>22</v>
       </c>
     </row>
@@ -3999,10 +3993,10 @@
       <c r="D120" s="8">
         <v>3.11</v>
       </c>
-      <c r="E120" s="15" t="s">
+      <c r="E120" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="F120" s="19">
+      <c r="F120" s="16">
         <v>30</v>
       </c>
     </row>
@@ -4019,10 +4013,10 @@
       <c r="D121" s="8">
         <v>5.23</v>
       </c>
-      <c r="E121" s="15" t="s">
+      <c r="E121" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="F121" s="19">
+      <c r="F121" s="16">
         <v>14</v>
       </c>
     </row>
@@ -4039,10 +4033,10 @@
       <c r="D122" s="8">
         <v>8.7100000000000009</v>
       </c>
-      <c r="E122" s="15" t="s">
+      <c r="E122" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="F122" s="19">
+      <c r="F122" s="16">
         <v>19</v>
       </c>
     </row>
@@ -4059,10 +4053,10 @@
       <c r="D123" s="8">
         <v>2.42</v>
       </c>
-      <c r="E123" s="15" t="s">
+      <c r="E123" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="F123" s="19">
+      <c r="F123" s="16">
         <v>10</v>
       </c>
     </row>
@@ -4079,10 +4073,10 @@
       <c r="D124" s="8">
         <v>3.56</v>
       </c>
-      <c r="E124" s="15" t="s">
+      <c r="E124" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="F124" s="19">
+      <c r="F124" s="16">
         <v>9</v>
       </c>
     </row>
@@ -4099,10 +4093,10 @@
       <c r="D125" s="8">
         <v>3.63</v>
       </c>
-      <c r="E125" s="15" t="s">
+      <c r="E125" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="F125" s="19">
+      <c r="F125" s="16">
         <v>23</v>
       </c>
     </row>
@@ -4119,10 +4113,10 @@
       <c r="D126" s="8">
         <v>6.9</v>
       </c>
-      <c r="E126" s="15" t="s">
+      <c r="E126" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="F126" s="19">
+      <c r="F126" s="16">
         <v>25</v>
       </c>
     </row>
@@ -4139,10 +4133,10 @@
       <c r="D127" s="8">
         <v>10.220000000000001</v>
       </c>
-      <c r="E127" s="15" t="s">
+      <c r="E127" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F127" s="19">
+      <c r="F127" s="16">
         <v>11</v>
       </c>
     </row>
@@ -4162,7 +4156,7 @@
       <c r="E128" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="F128" s="19">
+      <c r="F128" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4182,8 +4176,8 @@
       <c r="E129" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F129" s="19">
-        <v>8</v>
+      <c r="F129" s="16">
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -4202,7 +4196,7 @@
       <c r="E130" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F130" s="19">
+      <c r="F130" s="16">
         <v>8</v>
       </c>
     </row>
@@ -4222,8 +4216,8 @@
       <c r="E131" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F131" s="19">
-        <v>8</v>
+      <c r="F131" s="16">
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -4242,7 +4236,7 @@
       <c r="E132" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="F132" s="19">
+      <c r="F132" s="16">
         <v>3</v>
       </c>
     </row>
@@ -4262,7 +4256,7 @@
       <c r="E133" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F133" s="19">
+      <c r="F133" s="16">
         <v>6</v>
       </c>
     </row>
@@ -4282,7 +4276,7 @@
       <c r="E134" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F134" s="19">
+      <c r="F134" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4302,7 +4296,7 @@
       <c r="E135" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F135" s="19">
+      <c r="F135" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4322,7 +4316,7 @@
       <c r="E136" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F136" s="19">
+      <c r="F136" s="16">
         <v>7</v>
       </c>
     </row>
@@ -4342,7 +4336,7 @@
       <c r="E137" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="F137" s="19">
+      <c r="F137" s="16">
         <v>3</v>
       </c>
     </row>

--- a/prix/laiton.xlsx
+++ b/prix/laiton.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caisse5\Desktop\site-internet\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7497F98-84EB-4E52-A411-765E1820B86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B1FD1F-2959-42DC-A3DE-671637E1C461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{2BA8A27F-C677-4342-8A29-D0C4A22FC515}"/>
   </bookViews>
@@ -1186,7 +1186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1205,9 +1205,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1232,10 +1229,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1573,18 +1597,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16140EE4-62C9-4627-8E75-6BE0566E4DDE}">
   <dimension ref="A1:N137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="9" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" style="15" customWidth="1"/>
     <col min="7" max="7" width="51.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" style="2" customWidth="1"/>
     <col min="9" max="9" width="23.77734375" style="1" customWidth="1"/>
@@ -1600,7 +1622,7 @@
       <c r="B1" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>251</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -1609,7 +1631,7 @@
       <c r="E1" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>354</v>
       </c>
       <c r="G1" s="1"/>
@@ -1631,10 +1653,10 @@
       <c r="C2" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="17">
         <v>1.03</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="16">
@@ -1651,10 +1673,10 @@
       <c r="C3" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="17">
         <v>1.73</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="16">
@@ -1671,10 +1693,10 @@
       <c r="C4" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="17">
         <v>1.82</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="16">
@@ -1691,14 +1713,14 @@
       <c r="C5" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D5" s="8">
-        <v>1.23</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="17">
+        <v>0.81</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="16">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1711,14 +1733,14 @@
       <c r="C6" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="17">
         <v>1.03</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="16">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -1731,14 +1753,14 @@
       <c r="C7" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="17">
         <v>2.09</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="16">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -1751,10 +1773,10 @@
       <c r="C8" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="17">
         <v>3.5500000000000003</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="16">
@@ -1771,10 +1793,10 @@
       <c r="C9" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="17">
         <v>6.9</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="16">
@@ -1791,10 +1813,10 @@
       <c r="C10" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="17">
         <v>0.82000000000000006</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="16">
@@ -1811,10 +1833,10 @@
       <c r="C11" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="17">
         <v>1.19</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="16">
@@ -1831,14 +1853,14 @@
       <c r="C12" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D12" s="8">
-        <v>1.06</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="17">
+        <v>0.54</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="16">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1851,14 +1873,14 @@
       <c r="C13" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="17">
         <v>1.1500000000000001</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="16">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1871,10 +1893,10 @@
       <c r="C14" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="17">
         <v>2.15</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="16">
@@ -1891,10 +1913,10 @@
       <c r="C15" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="17">
         <v>1.69</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="16">
@@ -1911,10 +1933,10 @@
       <c r="C16" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="17">
         <v>4.6900000000000004</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="16">
@@ -1931,10 +1953,10 @@
       <c r="C17" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="17">
         <v>5.9</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="16">
@@ -1951,13 +1973,13 @@
       <c r="C18" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="19">
         <v>7.2700000000000005</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1971,13 +1993,13 @@
       <c r="C19" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="19">
         <v>6.63</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="18">
         <v>5</v>
       </c>
     </row>
@@ -1991,13 +2013,13 @@
       <c r="C20" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D20" s="8">
-        <v>8.66</v>
-      </c>
-      <c r="E20" s="12" t="s">
+      <c r="D20" s="19">
+        <v>9.85</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="18">
         <v>5</v>
       </c>
     </row>
@@ -2011,13 +2033,13 @@
       <c r="C21" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="19">
         <v>13.950000000000001</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="18">
         <v>8</v>
       </c>
     </row>
@@ -2031,13 +2053,13 @@
       <c r="C22" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="19">
         <v>23.04</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="18">
         <v>6</v>
       </c>
     </row>
@@ -2051,13 +2073,13 @@
       <c r="C23" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="19">
         <v>34.5</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="18">
         <v>1</v>
       </c>
     </row>
@@ -2071,13 +2093,13 @@
       <c r="C24" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="19">
         <v>5.15</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="18">
         <v>5</v>
       </c>
     </row>
@@ -2091,13 +2113,13 @@
       <c r="C25" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="19">
         <v>8.7799999999999994</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="18">
         <v>9</v>
       </c>
     </row>
@@ -2111,13 +2133,13 @@
       <c r="C26" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="19">
         <v>14.94</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="18">
         <v>3</v>
       </c>
     </row>
@@ -2131,13 +2153,13 @@
       <c r="C27" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="19">
         <v>27.09</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="18">
         <v>5</v>
       </c>
     </row>
@@ -2151,13 +2173,13 @@
       <c r="C28" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="19">
         <v>53.88</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="18">
         <v>5</v>
       </c>
     </row>
@@ -2171,13 +2193,13 @@
       <c r="C29" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="19">
         <v>53.88</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="18">
         <v>0</v>
       </c>
     </row>
@@ -2191,13 +2213,13 @@
       <c r="C30" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="19">
         <v>10.620000000000001</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="18">
         <v>20</v>
       </c>
     </row>
@@ -2211,13 +2233,13 @@
       <c r="C31" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="19">
         <v>16.13</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="18">
         <v>4</v>
       </c>
     </row>
@@ -2231,13 +2253,13 @@
       <c r="C32" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="19">
         <v>2.86</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="18">
         <v>0</v>
       </c>
     </row>
@@ -2251,14 +2273,14 @@
       <c r="C33" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="19">
         <v>2.04</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="16">
-        <v>13</v>
+      <c r="F33" s="18">
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2271,14 +2293,14 @@
       <c r="C34" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="19">
         <v>3.11</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="16">
-        <v>22</v>
+      <c r="F34" s="18">
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2291,14 +2313,14 @@
       <c r="C35" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="D35" s="8">
-        <v>4.03</v>
-      </c>
-      <c r="E35" s="12" t="s">
+      <c r="D35" s="19">
+        <v>4.22</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="16">
-        <v>7</v>
+      <c r="F35" s="18">
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2311,13 +2333,13 @@
       <c r="C36" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="19">
         <v>7.51</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="18">
         <v>9</v>
       </c>
     </row>
@@ -2331,13 +2353,13 @@
       <c r="C37" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="19">
         <v>15.52</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="18">
         <v>7</v>
       </c>
     </row>
@@ -2351,13 +2373,13 @@
       <c r="C38" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="19">
         <v>17.64</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="18">
         <v>27</v>
       </c>
     </row>
@@ -2371,13 +2393,13 @@
       <c r="C39" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="19">
         <v>10.1</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="18">
         <v>0</v>
       </c>
     </row>
@@ -2391,13 +2413,13 @@
       <c r="C40" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="19">
         <v>6.15</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="18">
         <v>10</v>
       </c>
     </row>
@@ -2411,13 +2433,13 @@
       <c r="C41" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="19">
         <v>0.91</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F41" s="18">
         <v>10</v>
       </c>
     </row>
@@ -2431,14 +2453,14 @@
       <c r="C42" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="19">
         <v>1.98</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F42" s="16">
-        <v>17</v>
+      <c r="F42" s="18">
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2451,13 +2473,13 @@
       <c r="C43" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="19">
         <v>1.06</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="18">
         <v>6</v>
       </c>
     </row>
@@ -2471,14 +2493,14 @@
       <c r="C44" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D44" s="8">
-        <v>1.36</v>
-      </c>
-      <c r="E44" s="12" t="s">
+      <c r="D44" s="19">
+        <v>1.26</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="16">
-        <v>31</v>
+      <c r="F44" s="18">
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2491,14 +2513,14 @@
       <c r="C45" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="19">
         <v>1.57</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F45" s="16">
-        <v>18</v>
+      <c r="F45" s="18">
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2511,14 +2533,14 @@
       <c r="C46" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="19">
         <v>2.95</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F46" s="16">
-        <v>30</v>
+      <c r="F46" s="18">
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2531,13 +2553,13 @@
       <c r="C47" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="19">
         <v>6.49</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F47" s="18">
         <v>4</v>
       </c>
     </row>
@@ -2551,13 +2573,13 @@
       <c r="C48" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="19">
         <v>6.44</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F48" s="18">
         <v>6</v>
       </c>
     </row>
@@ -2571,13 +2593,13 @@
       <c r="C49" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="19">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F49" s="18">
         <v>10</v>
       </c>
     </row>
@@ -2591,13 +2613,13 @@
       <c r="C50" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="19">
         <v>1.62</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="18">
         <v>0</v>
       </c>
     </row>
@@ -2611,13 +2633,13 @@
       <c r="C51" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="19">
         <v>1.98</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F51" s="18">
         <v>14</v>
       </c>
     </row>
@@ -2631,14 +2653,14 @@
       <c r="C52" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="D52" s="8">
-        <v>1.84</v>
-      </c>
-      <c r="E52" s="12" t="s">
+      <c r="D52" s="19">
+        <v>1.22</v>
+      </c>
+      <c r="E52" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F52" s="16">
-        <v>2</v>
+      <c r="F52" s="18">
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2651,14 +2673,14 @@
       <c r="C53" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="19">
         <v>1.94</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="E53" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F53" s="16">
-        <v>42</v>
+      <c r="F53" s="18">
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2671,13 +2693,13 @@
       <c r="C54" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="19">
         <v>2.57</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E54" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F54" s="18">
         <v>26</v>
       </c>
     </row>
@@ -2691,14 +2713,14 @@
       <c r="C55" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="19">
         <v>5.66</v>
       </c>
-      <c r="E55" s="12" t="s">
+      <c r="E55" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F55" s="16">
-        <v>16</v>
+      <c r="F55" s="18">
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2711,13 +2733,13 @@
       <c r="C56" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="19">
         <v>7.0200000000000005</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F56" s="18">
         <v>6</v>
       </c>
     </row>
@@ -2731,13 +2753,13 @@
       <c r="C57" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="19">
         <v>5.45</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F57" s="18">
         <v>7</v>
       </c>
     </row>
@@ -2746,13 +2768,13 @@
         <v>113</v>
       </c>
       <c r="C58" s="7"/>
-      <c r="D58" s="8">
+      <c r="D58" s="19">
         <v>0</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="E58" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F58" s="16">
+      <c r="F58" s="18">
         <v>0</v>
       </c>
     </row>
@@ -2766,13 +2788,13 @@
       <c r="C59" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="19">
         <v>0.65</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E59" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F59" s="18">
         <v>0</v>
       </c>
     </row>
@@ -2786,13 +2808,13 @@
       <c r="C60" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="19">
         <v>0.65</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="E60" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F60" s="18">
         <v>4</v>
       </c>
     </row>
@@ -2806,13 +2828,13 @@
       <c r="C61" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="19">
         <v>0.63</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="F61" s="16">
+      <c r="F61" s="18">
         <v>-1</v>
       </c>
     </row>
@@ -2826,14 +2848,14 @@
       <c r="C62" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="D62" s="8">
-        <v>1.31</v>
-      </c>
-      <c r="E62" s="12" t="s">
+      <c r="D62" s="19">
+        <v>1.22</v>
+      </c>
+      <c r="E62" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="F62" s="16">
-        <v>27</v>
+      <c r="F62" s="18">
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2846,14 +2868,14 @@
       <c r="C63" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="19">
         <v>1.21</v>
       </c>
-      <c r="E63" s="12" t="s">
+      <c r="E63" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F63" s="16">
-        <v>33</v>
+      <c r="F63" s="18">
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2866,13 +2888,13 @@
       <c r="C64" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="19">
         <v>2.44</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F64" s="18">
         <v>27</v>
       </c>
     </row>
@@ -2886,13 +2908,13 @@
       <c r="C65" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="19">
         <v>2.13</v>
       </c>
-      <c r="E65" s="12" t="s">
+      <c r="E65" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="F65" s="16">
+      <c r="F65" s="18">
         <v>40</v>
       </c>
     </row>
@@ -2906,13 +2928,13 @@
       <c r="C66" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="19">
         <v>4.1100000000000003</v>
       </c>
-      <c r="E66" s="12" t="s">
+      <c r="E66" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F66" s="18">
         <v>14</v>
       </c>
     </row>
@@ -2926,14 +2948,14 @@
       <c r="C67" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="19">
         <v>5.54</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="E67" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="F67" s="16">
-        <v>10</v>
+      <c r="F67" s="18">
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2941,13 +2963,13 @@
         <v>113</v>
       </c>
       <c r="C68" s="7"/>
-      <c r="D68" s="8">
+      <c r="D68" s="19">
         <v>0</v>
       </c>
-      <c r="E68" s="12" t="s">
+      <c r="E68" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F68" s="18">
         <v>0</v>
       </c>
     </row>
@@ -2961,13 +2983,13 @@
       <c r="C69" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="19">
         <v>4.9400000000000004</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="E69" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F69" s="16">
+      <c r="F69" s="18">
         <v>14</v>
       </c>
     </row>
@@ -2981,13 +3003,13 @@
       <c r="C70" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D70" s="19">
         <v>1.21</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="E70" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F70" s="18">
         <v>10</v>
       </c>
     </row>
@@ -3001,13 +3023,13 @@
       <c r="C71" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="19">
         <v>1.0900000000000001</v>
       </c>
-      <c r="E71" s="12" t="s">
+      <c r="E71" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="F71" s="16">
+      <c r="F71" s="18">
         <v>0</v>
       </c>
     </row>
@@ -3021,13 +3043,13 @@
       <c r="C72" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D72" s="19">
         <v>1.6500000000000001</v>
       </c>
-      <c r="E72" s="12" t="s">
+      <c r="E72" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F72" s="16">
+      <c r="F72" s="18">
         <v>0</v>
       </c>
     </row>
@@ -3041,14 +3063,14 @@
       <c r="C73" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73" s="19">
         <v>1.1400000000000001</v>
       </c>
-      <c r="E73" s="12" t="s">
+      <c r="E73" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F73" s="16">
-        <v>10</v>
+      <c r="F73" s="18">
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3061,13 +3083,13 @@
       <c r="C74" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D74" s="19">
         <v>1.6</v>
       </c>
-      <c r="E74" s="12" t="s">
+      <c r="E74" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F74" s="18">
         <v>22</v>
       </c>
     </row>
@@ -3081,13 +3103,13 @@
       <c r="C75" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="19">
         <v>2.73</v>
       </c>
-      <c r="E75" s="12" t="s">
+      <c r="E75" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="F75" s="16">
+      <c r="F75" s="18">
         <v>16</v>
       </c>
     </row>
@@ -3101,14 +3123,14 @@
       <c r="C76" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D76" s="19">
         <v>2.71</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E76" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="F76" s="16">
-        <v>16</v>
+      <c r="F76" s="18">
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3121,14 +3143,14 @@
       <c r="C77" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77" s="19">
         <v>5.9</v>
       </c>
-      <c r="E77" s="12" t="s">
+      <c r="E77" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="F77" s="16">
-        <v>15</v>
+      <c r="F77" s="18">
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3141,13 +3163,13 @@
       <c r="C78" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D78" s="19">
         <v>7.7700000000000005</v>
       </c>
-      <c r="E78" s="12" t="s">
+      <c r="E78" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F78" s="18">
         <v>2</v>
       </c>
     </row>
@@ -3161,13 +3183,13 @@
       <c r="C79" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D79" s="19">
         <v>1.0900000000000001</v>
       </c>
-      <c r="E79" s="12" t="s">
+      <c r="E79" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F79" s="16">
+      <c r="F79" s="18">
         <v>9</v>
       </c>
     </row>
@@ -3181,13 +3203,13 @@
       <c r="C80" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D80" s="19">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E80" s="12" t="s">
+      <c r="E80" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F80" s="16">
+      <c r="F80" s="18">
         <v>1</v>
       </c>
     </row>
@@ -3201,13 +3223,13 @@
       <c r="C81" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D81" s="19">
         <v>2.57</v>
       </c>
-      <c r="E81" s="12" t="s">
+      <c r="E81" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="F81" s="16">
+      <c r="F81" s="18">
         <v>27</v>
       </c>
     </row>
@@ -3221,14 +3243,14 @@
       <c r="C82" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D82" s="19">
         <v>2.9</v>
       </c>
-      <c r="E82" s="12" t="s">
+      <c r="E82" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F82" s="16">
-        <v>10</v>
+      <c r="F82" s="18">
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3241,13 +3263,13 @@
       <c r="C83" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D83" s="19">
         <v>3.44</v>
       </c>
-      <c r="E83" s="12" t="s">
+      <c r="E83" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F83" s="16">
+      <c r="F83" s="18">
         <v>21</v>
       </c>
     </row>
@@ -3261,13 +3283,13 @@
       <c r="C84" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D84" s="19">
         <v>3.44</v>
       </c>
-      <c r="E84" s="12" t="s">
+      <c r="E84" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="F84" s="16">
+      <c r="F84" s="18">
         <v>18</v>
       </c>
     </row>
@@ -3281,13 +3303,13 @@
       <c r="C85" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="19">
         <v>6.17</v>
       </c>
-      <c r="E85" s="12" t="s">
+      <c r="E85" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F85" s="16">
+      <c r="F85" s="18">
         <v>21</v>
       </c>
     </row>
@@ -3301,13 +3323,13 @@
       <c r="C86" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D86" s="19">
         <v>5.74</v>
       </c>
-      <c r="E86" s="12" t="s">
+      <c r="E86" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F86" s="16">
+      <c r="F86" s="18">
         <v>4</v>
       </c>
     </row>
@@ -3321,13 +3343,13 @@
       <c r="C87" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D87" s="19">
         <v>10.84</v>
       </c>
-      <c r="E87" s="12" t="s">
+      <c r="E87" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="F87" s="16">
+      <c r="F87" s="18">
         <v>0</v>
       </c>
     </row>
@@ -3336,13 +3358,13 @@
         <v>113</v>
       </c>
       <c r="C88" s="7"/>
-      <c r="D88" s="8">
+      <c r="D88" s="19">
         <v>0</v>
       </c>
-      <c r="E88" s="12" t="s">
+      <c r="E88" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F88" s="16">
+      <c r="F88" s="18">
         <v>0</v>
       </c>
     </row>
@@ -3356,13 +3378,13 @@
       <c r="C89" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D89" s="19">
         <v>0.82000000000000006</v>
       </c>
-      <c r="E89" s="12" t="s">
+      <c r="E89" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="F89" s="16">
+      <c r="F89" s="18">
         <v>8</v>
       </c>
     </row>
@@ -3376,13 +3398,13 @@
       <c r="C90" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D90" s="19">
         <v>2.52</v>
       </c>
-      <c r="E90" s="12" t="s">
+      <c r="E90" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="F90" s="16">
+      <c r="F90" s="18">
         <v>8</v>
       </c>
     </row>
@@ -3396,14 +3418,14 @@
       <c r="C91" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D91" s="19">
         <v>1.26</v>
       </c>
-      <c r="E91" s="12" t="s">
+      <c r="E91" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="F91" s="16">
-        <v>36</v>
+      <c r="F91" s="18">
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -3416,14 +3438,14 @@
       <c r="C92" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D92" s="19">
         <v>1.74</v>
       </c>
-      <c r="E92" s="12" t="s">
+      <c r="E92" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="F92" s="16">
-        <v>55</v>
+      <c r="F92" s="18">
+        <v>51</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -3436,13 +3458,13 @@
       <c r="C93" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="D93" s="8">
+      <c r="D93" s="19">
         <v>2.42</v>
       </c>
-      <c r="E93" s="12" t="s">
+      <c r="E93" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="F93" s="16">
+      <c r="F93" s="18">
         <v>14</v>
       </c>
     </row>
@@ -3456,13 +3478,13 @@
       <c r="C94" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D94" s="8">
+      <c r="D94" s="19">
         <v>4.09</v>
       </c>
-      <c r="E94" s="12" t="s">
+      <c r="E94" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F94" s="16">
+      <c r="F94" s="18">
         <v>9</v>
       </c>
     </row>
@@ -3476,13 +3498,13 @@
       <c r="C95" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D95" s="8">
+      <c r="D95" s="19">
         <v>7.57</v>
       </c>
-      <c r="E95" s="12" t="s">
+      <c r="E95" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="F95" s="16">
+      <c r="F95" s="18">
         <v>5</v>
       </c>
     </row>
@@ -3496,13 +3518,13 @@
       <c r="C96" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D96" s="8">
+      <c r="D96" s="19">
         <v>9.75</v>
       </c>
-      <c r="E96" s="12" t="s">
+      <c r="E96" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="F96" s="16">
+      <c r="F96" s="18">
         <v>13</v>
       </c>
     </row>
@@ -3516,13 +3538,13 @@
       <c r="C97" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="D97" s="8">
+      <c r="D97" s="19">
         <v>8.42</v>
       </c>
-      <c r="E97" s="12" t="s">
+      <c r="E97" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="F97" s="16">
+      <c r="F97" s="18">
         <v>10</v>
       </c>
     </row>
@@ -3536,13 +3558,13 @@
       <c r="C98" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D98" s="8">
+      <c r="D98" s="19">
         <v>6.95</v>
       </c>
-      <c r="E98" s="12" t="s">
+      <c r="E98" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="F98" s="16">
+      <c r="F98" s="18">
         <v>7</v>
       </c>
     </row>
@@ -3556,14 +3578,14 @@
       <c r="C99" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D99" s="8">
-        <v>1.77</v>
-      </c>
-      <c r="E99" s="12" t="s">
+      <c r="D99" s="19">
+        <v>1.69</v>
+      </c>
+      <c r="E99" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="F99" s="16">
-        <v>9</v>
+      <c r="F99" s="18">
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
@@ -3576,13 +3598,13 @@
       <c r="C100" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D100" s="8">
+      <c r="D100" s="19">
         <v>2.73</v>
       </c>
-      <c r="E100" s="12" t="s">
+      <c r="E100" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="F100" s="16">
+      <c r="F100" s="18">
         <v>38</v>
       </c>
     </row>
@@ -3596,13 +3618,13 @@
       <c r="C101" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D101" s="8">
+      <c r="D101" s="19">
         <v>3.56</v>
       </c>
-      <c r="E101" s="12" t="s">
+      <c r="E101" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="F101" s="16">
+      <c r="F101" s="18">
         <v>20</v>
       </c>
     </row>
@@ -3616,13 +3638,13 @@
       <c r="C102" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D102" s="8">
+      <c r="D102" s="19">
         <v>7.36</v>
       </c>
-      <c r="E102" s="12" t="s">
+      <c r="E102" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="F102" s="16">
+      <c r="F102" s="18">
         <v>15</v>
       </c>
     </row>
@@ -3636,13 +3658,13 @@
       <c r="C103" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D103" s="8">
+      <c r="D103" s="19">
         <v>15.58</v>
       </c>
-      <c r="E103" s="12" t="s">
+      <c r="E103" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="F103" s="16">
+      <c r="F103" s="18">
         <v>4</v>
       </c>
     </row>
@@ -3656,13 +3678,13 @@
       <c r="C104" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D104" s="8">
+      <c r="D104" s="19">
         <v>18.830000000000002</v>
       </c>
-      <c r="E104" s="12" t="s">
+      <c r="E104" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="F104" s="16">
+      <c r="F104" s="18">
         <v>4</v>
       </c>
     </row>
@@ -3676,13 +3698,13 @@
       <c r="C105" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D105" s="8">
+      <c r="D105" s="19">
         <v>1.77</v>
       </c>
-      <c r="E105" s="12" t="s">
+      <c r="E105" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="F105" s="16">
+      <c r="F105" s="18">
         <v>27</v>
       </c>
     </row>
@@ -3696,14 +3718,14 @@
       <c r="C106" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D106" s="8">
+      <c r="D106" s="19">
         <v>2.11</v>
       </c>
-      <c r="E106" s="12" t="s">
+      <c r="E106" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="F106" s="16">
-        <v>34</v>
+      <c r="F106" s="18">
+        <v>31</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
@@ -3716,14 +3738,14 @@
       <c r="C107" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D107" s="8">
+      <c r="D107" s="19">
         <v>3.92</v>
       </c>
-      <c r="E107" s="12" t="s">
+      <c r="E107" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="F107" s="16">
-        <v>14</v>
+      <c r="F107" s="18">
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
@@ -3736,13 +3758,13 @@
       <c r="C108" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D108" s="8">
+      <c r="D108" s="19">
         <v>6.07</v>
       </c>
-      <c r="E108" s="12" t="s">
+      <c r="E108" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="F108" s="16">
+      <c r="F108" s="18">
         <v>12</v>
       </c>
     </row>
@@ -3756,13 +3778,13 @@
       <c r="C109" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D109" s="8">
+      <c r="D109" s="19">
         <v>14.35</v>
       </c>
-      <c r="E109" s="12" t="s">
+      <c r="E109" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F109" s="16">
+      <c r="F109" s="18">
         <v>3</v>
       </c>
     </row>
@@ -3776,13 +3798,13 @@
       <c r="C110" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D110" s="8">
+      <c r="D110" s="19">
         <v>17.420000000000002</v>
       </c>
-      <c r="E110" s="12" t="s">
+      <c r="E110" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="F110" s="16">
+      <c r="F110" s="18">
         <v>1</v>
       </c>
     </row>
@@ -3796,13 +3818,13 @@
       <c r="C111" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="D111" s="8">
+      <c r="D111" s="21">
         <v>6.23</v>
       </c>
-      <c r="E111" s="13" t="s">
+      <c r="E111" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="F111" s="16">
+      <c r="F111" s="20">
         <v>0</v>
       </c>
       <c r="G111" s="2"/>
@@ -3823,13 +3845,13 @@
       <c r="C112" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D112" s="8">
+      <c r="D112" s="21">
         <v>7.5</v>
       </c>
-      <c r="E112" s="13" t="s">
+      <c r="E112" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="F112" s="16">
+      <c r="F112" s="20">
         <v>1</v>
       </c>
       <c r="G112" s="2"/>
@@ -3850,13 +3872,13 @@
       <c r="C113" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="D113" s="8">
+      <c r="D113" s="21">
         <v>5.76</v>
       </c>
-      <c r="E113" s="13" t="s">
+      <c r="E113" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="F113" s="16">
+      <c r="F113" s="20">
         <v>32</v>
       </c>
     </row>
@@ -3870,14 +3892,14 @@
       <c r="C114" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="D114" s="8">
+      <c r="D114" s="21">
         <v>10.51</v>
       </c>
-      <c r="E114" s="13" t="s">
+      <c r="E114" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="F114" s="16">
-        <v>0</v>
+      <c r="F114" s="20">
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -3890,13 +3912,13 @@
       <c r="C115" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="D115" s="8">
+      <c r="D115" s="21">
         <v>10.25</v>
       </c>
-      <c r="E115" s="13" t="s">
+      <c r="E115" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="F115" s="16">
+      <c r="F115" s="20">
         <v>0</v>
       </c>
     </row>
@@ -3910,13 +3932,13 @@
       <c r="C116" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="D116" s="8">
+      <c r="D116" s="21">
         <v>7.01</v>
       </c>
-      <c r="E116" s="13" t="s">
+      <c r="E116" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="F116" s="16">
+      <c r="F116" s="20">
         <v>8</v>
       </c>
     </row>
@@ -3930,13 +3952,13 @@
       <c r="C117" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D117" s="8">
+      <c r="D117" s="21">
         <v>15.58</v>
       </c>
-      <c r="E117" s="13" t="s">
+      <c r="E117" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="F117" s="16">
+      <c r="F117" s="20">
         <v>0</v>
       </c>
     </row>
@@ -3950,14 +3972,14 @@
       <c r="C118" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="D118" s="8">
+      <c r="D118" s="23">
         <v>1.61</v>
       </c>
-      <c r="E118" s="14" t="s">
+      <c r="E118" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="F118" s="16">
-        <v>26</v>
+      <c r="F118" s="22">
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -3970,14 +3992,14 @@
       <c r="C119" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="D119" s="8">
+      <c r="D119" s="23">
         <v>2.35</v>
       </c>
-      <c r="E119" s="14" t="s">
+      <c r="E119" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="F119" s="16">
-        <v>22</v>
+      <c r="F119" s="22">
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -3990,14 +4012,14 @@
       <c r="C120" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="D120" s="8">
+      <c r="D120" s="23">
         <v>3.11</v>
       </c>
-      <c r="E120" s="14" t="s">
+      <c r="E120" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="F120" s="16">
-        <v>30</v>
+      <c r="F120" s="22">
+        <v>26</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -4010,14 +4032,14 @@
       <c r="C121" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="D121" s="8">
+      <c r="D121" s="23">
         <v>5.23</v>
       </c>
-      <c r="E121" s="14" t="s">
+      <c r="E121" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="F121" s="16">
-        <v>14</v>
+      <c r="F121" s="22">
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -4030,14 +4052,14 @@
       <c r="C122" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="D122" s="8">
+      <c r="D122" s="23">
         <v>8.7100000000000009</v>
       </c>
-      <c r="E122" s="14" t="s">
+      <c r="E122" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="F122" s="16">
-        <v>19</v>
+      <c r="F122" s="22">
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -4050,13 +4072,13 @@
       <c r="C123" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="D123" s="8">
+      <c r="D123" s="23">
         <v>2.42</v>
       </c>
-      <c r="E123" s="14" t="s">
+      <c r="E123" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="F123" s="16">
+      <c r="F123" s="22">
         <v>10</v>
       </c>
     </row>
@@ -4070,13 +4092,13 @@
       <c r="C124" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D124" s="8">
+      <c r="D124" s="23">
         <v>3.56</v>
       </c>
-      <c r="E124" s="14" t="s">
+      <c r="E124" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="F124" s="16">
+      <c r="F124" s="22">
         <v>9</v>
       </c>
     </row>
@@ -4090,14 +4112,14 @@
       <c r="C125" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="D125" s="8">
+      <c r="D125" s="23">
         <v>3.63</v>
       </c>
-      <c r="E125" s="14" t="s">
+      <c r="E125" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="F125" s="16">
-        <v>23</v>
+      <c r="F125" s="22">
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -4110,13 +4132,13 @@
       <c r="C126" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="D126" s="8">
+      <c r="D126" s="23">
         <v>6.9</v>
       </c>
-      <c r="E126" s="14" t="s">
+      <c r="E126" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="F126" s="16">
+      <c r="F126" s="22">
         <v>25</v>
       </c>
     </row>
@@ -4130,13 +4152,13 @@
       <c r="C127" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="D127" s="8">
+      <c r="D127" s="23">
         <v>10.220000000000001</v>
       </c>
-      <c r="E127" s="14" t="s">
+      <c r="E127" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="F127" s="16">
+      <c r="F127" s="22">
         <v>11</v>
       </c>
     </row>
@@ -4147,16 +4169,16 @@
       <c r="B128" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="C128" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="D128" s="8">
+      <c r="D128" s="25">
         <v>0.97</v>
       </c>
       <c r="E128" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="F128" s="16">
+      <c r="F128" s="24">
         <v>0</v>
       </c>
     </row>
@@ -4167,17 +4189,17 @@
       <c r="B129" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="C129" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="D129" s="8">
+      <c r="D129" s="25">
         <v>2.5300000000000002</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F129" s="16">
-        <v>7</v>
+      <c r="F129" s="24">
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -4187,16 +4209,16 @@
       <c r="B130" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="C130" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="D130" s="8">
+      <c r="D130" s="25">
         <v>2.4300000000000002</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F130" s="16">
+      <c r="F130" s="24">
         <v>8</v>
       </c>
     </row>
@@ -4207,16 +4229,16 @@
       <c r="B131" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C131" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="D131" s="8">
+      <c r="D131" s="25">
         <v>3.95</v>
       </c>
       <c r="E131" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F131" s="16">
+      <c r="F131" s="24">
         <v>7</v>
       </c>
     </row>
@@ -4227,16 +4249,16 @@
       <c r="B132" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="C132" s="10" t="s">
+      <c r="C132" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="D132" s="8">
+      <c r="D132" s="25">
         <v>2.8000000000000003</v>
       </c>
       <c r="E132" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="F132" s="16">
+      <c r="F132" s="24">
         <v>3</v>
       </c>
     </row>
@@ -4247,16 +4269,16 @@
       <c r="B133" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="C133" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="D133" s="8">
+      <c r="D133" s="25">
         <v>3.67</v>
       </c>
       <c r="E133" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F133" s="16">
+      <c r="F133" s="24">
         <v>6</v>
       </c>
     </row>
@@ -4267,16 +4289,16 @@
       <c r="B134" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="C134" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="D134" s="8">
+      <c r="D134" s="25">
         <v>10.14</v>
       </c>
       <c r="E134" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F134" s="16">
+      <c r="F134" s="24">
         <v>0</v>
       </c>
     </row>
@@ -4287,16 +4309,16 @@
       <c r="B135" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="C135" s="10" t="s">
+      <c r="C135" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="D135" s="8">
+      <c r="D135" s="25">
         <v>12.620000000000001</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F135" s="16">
+      <c r="F135" s="24">
         <v>0</v>
       </c>
     </row>
@@ -4307,16 +4329,16 @@
       <c r="B136" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="C136" s="10" t="s">
+      <c r="C136" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="D136" s="8">
+      <c r="D136" s="25">
         <v>4.2</v>
       </c>
       <c r="E136" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F136" s="16">
+      <c r="F136" s="24">
         <v>7</v>
       </c>
     </row>
@@ -4327,16 +4349,16 @@
       <c r="B137" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="C137" s="10" t="s">
+      <c r="C137" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="D137" s="8">
+      <c r="D137" s="25">
         <v>7.51</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="F137" s="16">
+      <c r="F137" s="24">
         <v>3</v>
       </c>
     </row>
